--- a/database/industries/darou/derazak/product/monthly_seprated.xlsx
+++ b/database/industries/darou/derazak/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="93">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3391,59 +3391,59 @@
       <c r="R11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S11" s="13" t="s">
-        <v>58</v>
+      <c r="S11" s="13" t="n">
+        <v>103250</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>103250</v>
+        <v>71600</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>71600</v>
+        <v>3600</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>3600</v>
+        <v>33100</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>33100</v>
+        <v>0</v>
       </c>
       <c r="X11" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>50000</v>
+        <v>103800</v>
       </c>
       <c r="AA11" s="13" t="n">
         <v>103800</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>103800</v>
+        <v>81600</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>81600</v>
+        <v>5400</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>0</v>
+        <v>83300</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>83300</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>0</v>
+        <v>102400</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>102400</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>0</v>
+        <v>69300</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>69300</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="13" t="n">
         <v>0</v>
@@ -3494,10 +3494,10 @@
         <v>0</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>0</v>
+        <v>11600</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>11600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3550,110 +3550,110 @@
       <c r="R12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S12" s="16" t="s">
-        <v>58</v>
+      <c r="S12" s="16" t="n">
+        <v>878890</v>
       </c>
       <c r="T12" s="16" t="n">
-        <v>878890</v>
+        <v>517173</v>
       </c>
       <c r="U12" s="16" t="n">
-        <v>517173</v>
+        <v>0</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>0</v>
+        <v>430296</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>430296</v>
+        <v>518175</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>518175</v>
+        <v>392446</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>392446</v>
+        <v>855973</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>855973</v>
+        <v>683494</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>683494</v>
+        <v>990535</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>990535</v>
+        <v>303373</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>303373</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>0</v>
+        <v>724832</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>724832</v>
+        <v>467919</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>467919</v>
+        <v>346833</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>346833</v>
+        <v>265419</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>265419</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>0</v>
+        <v>344097</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>344097</v>
+        <v>693972</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>693972</v>
+        <v>826466</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>826466</v>
+        <v>995468</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>995468</v>
+        <v>787922</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>787922</v>
+        <v>442418</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>442418</v>
+        <v>261778</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>261778</v>
+        <v>530558</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>530558</v>
+        <v>615078</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>615078</v>
+        <v>660750</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>660750</v>
+        <v>756368</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>756368</v>
+        <v>282016</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>282016</v>
+        <v>561725</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>561725</v>
+        <v>782330</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>782330</v>
+        <v>852123</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>852123</v>
+        <v>803299</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>803299</v>
+        <v>77983</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>77983</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="16" t="n">
         <v>0</v>
@@ -3709,113 +3709,113 @@
       <c r="R13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="13" t="s">
-        <v>58</v>
+      <c r="S13" s="13" t="n">
+        <v>421354</v>
       </c>
       <c r="T13" s="13" t="n">
-        <v>421354</v>
+        <v>256065</v>
       </c>
       <c r="U13" s="13" t="n">
-        <v>256065</v>
+        <v>211830</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>211830</v>
+        <v>107581</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>107581</v>
+        <v>367839</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>367839</v>
+        <v>317721</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>317721</v>
+        <v>207955</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>207955</v>
+        <v>156893</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>156893</v>
+        <v>180494</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>180494</v>
+        <v>200086</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>200086</v>
+        <v>124033</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>124033</v>
+        <v>499970</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>499970</v>
+        <v>263943</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>263943</v>
+        <v>417022</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>417022</v>
+        <v>414802</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>414802</v>
+        <v>374661</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>374661</v>
+        <v>448605</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>448605</v>
+        <v>603510</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>603510</v>
+        <v>492988</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>492988</v>
+        <v>491125</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>491125</v>
+        <v>565295</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>565295</v>
+        <v>505031</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>505031</v>
+        <v>480711</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>480711</v>
+        <v>151022</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>151022</v>
+        <v>439006</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>439006</v>
+        <v>311191</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>311191</v>
+        <v>464615</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>464615</v>
+        <v>422235</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>422235</v>
+        <v>336144</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>336144</v>
+        <v>325566</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>325566</v>
+        <v>330447</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>330447</v>
+        <v>406161</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>406161</v>
+        <v>642575</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>642575</v>
+        <v>638823</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>638823</v>
+        <v>236267</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>236267</v>
+        <v>147485</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3868,113 +3868,113 @@
       <c r="R14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S14" s="16" t="s">
-        <v>58</v>
+      <c r="S14" s="16" t="n">
+        <v>1492976</v>
       </c>
       <c r="T14" s="16" t="n">
-        <v>1492976</v>
+        <v>1778809</v>
       </c>
       <c r="U14" s="16" t="n">
-        <v>1778809</v>
+        <v>1710065</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>1710065</v>
+        <v>1575524</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>1575524</v>
+        <v>1504975</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>1504975</v>
+        <v>1984367</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>1984367</v>
+        <v>1796944</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>1796944</v>
+        <v>1813563</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>1813563</v>
+        <v>1404165</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>1404165</v>
+        <v>1921960</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>1921960</v>
+        <v>1478436</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>1478436</v>
+        <v>2395460</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>2395460</v>
+        <v>1689384</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>1689384</v>
+        <v>2113953</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>2113953</v>
+        <v>1907404</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>1907404</v>
+        <v>1560311</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>1560311</v>
+        <v>2001865</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>2001865</v>
+        <v>2396831</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>2396831</v>
+        <v>2504869</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>2504869</v>
+        <v>2515782</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>2515782</v>
+        <v>2490036</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>2490036</v>
+        <v>1991516</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>1991516</v>
+        <v>642438</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>642438</v>
+        <v>979243</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>979243</v>
+        <v>1392765</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>1392765</v>
+        <v>2010919</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>2010919</v>
+        <v>2195072</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>2195072</v>
+        <v>2271131</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>2271131</v>
+        <v>2455124</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>2455124</v>
+        <v>2498962</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>2498962</v>
+        <v>2504181</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>2504181</v>
+        <v>2390917</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>2390917</v>
+        <v>2498194</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>2498194</v>
+        <v>2520151</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>2520151</v>
+        <v>1454170</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>1454170</v>
+        <v>1158865</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,113 +4027,113 @@
       <c r="R15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S15" s="13" t="s">
-        <v>58</v>
+      <c r="S15" s="13" t="n">
+        <v>1069505</v>
       </c>
       <c r="T15" s="13" t="n">
-        <v>1069505</v>
+        <v>1273837</v>
       </c>
       <c r="U15" s="13" t="n">
-        <v>1273837</v>
+        <v>743721</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>743721</v>
+        <v>492836</v>
       </c>
       <c r="W15" s="13" t="n">
-        <v>492836</v>
+        <v>238109</v>
       </c>
       <c r="X15" s="13" t="n">
-        <v>238109</v>
+        <v>669017</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>669017</v>
+        <v>748789</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>748789</v>
+        <v>935541</v>
       </c>
       <c r="AA15" s="13" t="n">
-        <v>935541</v>
+        <v>1108191</v>
       </c>
       <c r="AB15" s="13" t="n">
-        <v>1108191</v>
+        <v>303373</v>
       </c>
       <c r="AC15" s="13" t="n">
-        <v>303373</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>0</v>
+        <v>427345</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>427345</v>
+        <v>538363</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>538363</v>
+        <v>324266</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>324266</v>
+        <v>396104</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>396104</v>
+        <v>451877</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>451877</v>
+        <v>541861</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>541861</v>
+        <v>818963</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>818963</v>
+        <v>855741</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>855741</v>
+        <v>603288</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>603288</v>
+        <v>371419</v>
       </c>
       <c r="AO15" s="13" t="n">
-        <v>371419</v>
+        <v>341145</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>341145</v>
+        <v>327735</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>327735</v>
+        <v>435388</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>435388</v>
+        <v>397645</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>397645</v>
+        <v>583505</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>583505</v>
+        <v>769844</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>769844</v>
+        <v>846840</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>846840</v>
+        <v>776618</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>776618</v>
+        <v>835259</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>835259</v>
+        <v>668275</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>668275</v>
+        <v>726759</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>726759</v>
+        <v>501051</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>501051</v>
+        <v>682419</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>682419</v>
+        <v>393377</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4186,113 +4186,113 @@
       <c r="R16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S16" s="16" t="s">
-        <v>58</v>
+      <c r="S16" s="16" t="n">
+        <v>355990</v>
       </c>
       <c r="T16" s="16" t="n">
-        <v>355990</v>
+        <v>302211</v>
       </c>
       <c r="U16" s="16" t="n">
-        <v>302211</v>
+        <v>402749</v>
       </c>
       <c r="V16" s="16" t="n">
-        <v>402749</v>
+        <v>647702</v>
       </c>
       <c r="W16" s="16" t="n">
-        <v>647702</v>
+        <v>990526</v>
       </c>
       <c r="X16" s="16" t="n">
-        <v>990526</v>
+        <v>397238</v>
       </c>
       <c r="Y16" s="16" t="n">
-        <v>397238</v>
+        <v>593065</v>
       </c>
       <c r="Z16" s="16" t="n">
-        <v>593065</v>
+        <v>527965</v>
       </c>
       <c r="AA16" s="16" t="n">
-        <v>527965</v>
+        <v>1063519</v>
       </c>
       <c r="AB16" s="16" t="n">
-        <v>1063519</v>
+        <v>502985</v>
       </c>
       <c r="AC16" s="16" t="n">
-        <v>502985</v>
+        <v>555864</v>
       </c>
       <c r="AD16" s="16" t="n">
-        <v>555864</v>
+        <v>619002</v>
       </c>
       <c r="AE16" s="16" t="n">
-        <v>619002</v>
+        <v>1075270</v>
       </c>
       <c r="AF16" s="16" t="n">
-        <v>1075270</v>
+        <v>738650</v>
       </c>
       <c r="AG16" s="16" t="n">
-        <v>738650</v>
+        <v>895456</v>
       </c>
       <c r="AH16" s="16" t="n">
-        <v>895456</v>
+        <v>482896</v>
       </c>
       <c r="AI16" s="16" t="n">
-        <v>482896</v>
+        <v>681862</v>
       </c>
       <c r="AJ16" s="16" t="n">
-        <v>681862</v>
+        <v>721862</v>
       </c>
       <c r="AK16" s="16" t="n">
-        <v>721862</v>
+        <v>368485</v>
       </c>
       <c r="AL16" s="16" t="n">
-        <v>368485</v>
+        <v>134750</v>
       </c>
       <c r="AM16" s="16" t="n">
-        <v>134750</v>
+        <v>137460</v>
       </c>
       <c r="AN16" s="16" t="n">
-        <v>137460</v>
+        <v>200000</v>
       </c>
       <c r="AO16" s="16" t="n">
-        <v>200000</v>
+        <v>490175</v>
       </c>
       <c r="AP16" s="16" t="n">
-        <v>490175</v>
+        <v>301401</v>
       </c>
       <c r="AQ16" s="16" t="n">
-        <v>301401</v>
+        <v>535125</v>
       </c>
       <c r="AR16" s="16" t="n">
-        <v>535125</v>
+        <v>510278</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>510278</v>
+        <v>511751</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>511751</v>
+        <v>596105</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>596105</v>
+        <v>453771</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>453771</v>
+        <v>278182</v>
       </c>
       <c r="AW16" s="16" t="n">
-        <v>278182</v>
+        <v>114665</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>114665</v>
+        <v>504782</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>504782</v>
+        <v>0</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>0</v>
+        <v>184000</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>184000</v>
+        <v>361759</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>361759</v>
+        <v>169531</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4344,112 +4344,112 @@
         <v>0</v>
       </c>
       <c r="S17" s="18" t="n">
-        <v>0</v>
+        <v>4321965</v>
       </c>
       <c r="T17" s="18" t="n">
-        <v>4321965</v>
+        <v>4199695</v>
       </c>
       <c r="U17" s="18" t="n">
-        <v>4199695</v>
+        <v>3071965</v>
       </c>
       <c r="V17" s="18" t="n">
-        <v>3071965</v>
+        <v>3287039</v>
       </c>
       <c r="W17" s="18" t="n">
-        <v>3287039</v>
+        <v>3619624</v>
       </c>
       <c r="X17" s="18" t="n">
-        <v>3619624</v>
+        <v>3760789</v>
       </c>
       <c r="Y17" s="18" t="n">
-        <v>3760789</v>
+        <v>4252726</v>
       </c>
       <c r="Z17" s="18" t="n">
-        <v>4252726</v>
+        <v>4221256</v>
       </c>
       <c r="AA17" s="18" t="n">
-        <v>4221256</v>
+        <v>4850704</v>
       </c>
       <c r="AB17" s="18" t="n">
-        <v>4850704</v>
+        <v>3313377</v>
       </c>
       <c r="AC17" s="18" t="n">
-        <v>3313377</v>
+        <v>2163733</v>
       </c>
       <c r="AD17" s="18" t="n">
-        <v>2163733</v>
+        <v>3514432</v>
       </c>
       <c r="AE17" s="18" t="n">
-        <v>3514432</v>
+        <v>4264074</v>
       </c>
       <c r="AF17" s="18" t="n">
-        <v>4264074</v>
+        <v>4275907</v>
       </c>
       <c r="AG17" s="18" t="n">
-        <v>4275907</v>
+        <v>3991161</v>
       </c>
       <c r="AH17" s="18" t="n">
-        <v>3991161</v>
+        <v>3079391</v>
       </c>
       <c r="AI17" s="18" t="n">
-        <v>3079391</v>
+        <v>3653509</v>
       </c>
       <c r="AJ17" s="18" t="n">
-        <v>3653509</v>
+        <v>4608161</v>
       </c>
       <c r="AK17" s="18" t="n">
-        <v>4608161</v>
+        <v>4879277</v>
       </c>
       <c r="AL17" s="18" t="n">
-        <v>4879277</v>
+        <v>4823864</v>
       </c>
       <c r="AM17" s="18" t="n">
-        <v>4823864</v>
+        <v>4791547</v>
       </c>
       <c r="AN17" s="18" t="n">
-        <v>4791547</v>
+        <v>3855888</v>
       </c>
       <c r="AO17" s="18" t="n">
-        <v>3855888</v>
+        <v>2396887</v>
       </c>
       <c r="AP17" s="18" t="n">
-        <v>2396887</v>
+        <v>2021179</v>
       </c>
       <c r="AQ17" s="18" t="n">
-        <v>2021179</v>
+        <v>3332842</v>
       </c>
       <c r="AR17" s="18" t="n">
-        <v>3332842</v>
+        <v>3845111</v>
       </c>
       <c r="AS17" s="18" t="n">
-        <v>3845111</v>
+        <v>4415693</v>
       </c>
       <c r="AT17" s="18" t="n">
-        <v>4415693</v>
+        <v>4815683</v>
       </c>
       <c r="AU17" s="18" t="n">
-        <v>4815683</v>
+        <v>4373895</v>
       </c>
       <c r="AV17" s="18" t="n">
-        <v>4373895</v>
+        <v>4441053</v>
       </c>
       <c r="AW17" s="18" t="n">
-        <v>4441053</v>
+        <v>4566882</v>
       </c>
       <c r="AX17" s="18" t="n">
-        <v>4566882</v>
+        <v>4822258</v>
       </c>
       <c r="AY17" s="18" t="n">
-        <v>4822258</v>
+        <v>4670827</v>
       </c>
       <c r="AZ17" s="18" t="n">
-        <v>4670827</v>
+        <v>3922008</v>
       </c>
       <c r="BA17" s="18" t="n">
-        <v>3922008</v>
+        <v>2746215</v>
       </c>
       <c r="BB17" s="18" t="n">
-        <v>2746215</v>
+        <v>1869258</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4559,11 +4559,11 @@
       <c r="R19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T19" s="13" t="n">
-        <v>0</v>
+      <c r="S19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="U19" s="13" t="s">
         <v>58</v>
@@ -4592,11 +4592,11 @@
       <c r="AC19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE19" s="13" t="n">
-        <v>0</v>
+      <c r="AD19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF19" s="13" t="s">
         <v>58</v>
@@ -4613,11 +4613,11 @@
       <c r="AJ19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL19" s="13" t="n">
-        <v>0</v>
+      <c r="AK19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM19" s="13" t="s">
         <v>58</v>
@@ -4625,8 +4625,8 @@
       <c r="AN19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO19" s="13" t="s">
-        <v>58</v>
+      <c r="AO19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP19" s="13" t="n">
         <v>0</v>
@@ -4718,11 +4718,11 @@
       <c r="R20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T20" s="16" t="n">
-        <v>0</v>
+      <c r="S20" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="U20" s="16" t="s">
         <v>58</v>
@@ -4733,11 +4733,11 @@
       <c r="W20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X20" s="16" t="s">
-        <v>58</v>
+      <c r="X20" s="16" t="n">
+        <v>229984</v>
       </c>
       <c r="Y20" s="16" t="n">
-        <v>229984</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="16" t="n">
         <v>0</v>
@@ -4754,8 +4754,8 @@
       <c r="AD20" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE20" s="16" t="n">
-        <v>0</v>
+      <c r="AE20" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF20" s="16" t="s">
         <v>58</v>
@@ -4772,11 +4772,11 @@
       <c r="AJ20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK20" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL20" s="16" t="n">
-        <v>0</v>
+      <c r="AK20" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AM20" s="16" t="s">
         <v>58</v>
@@ -4784,8 +4784,8 @@
       <c r="AN20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO20" s="16" t="s">
-        <v>58</v>
+      <c r="AO20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP20" s="16" t="n">
         <v>0</v>
@@ -4794,22 +4794,22 @@
         <v>0</v>
       </c>
       <c r="AR20" s="16" t="n">
-        <v>0</v>
+        <v>162000</v>
       </c>
       <c r="AS20" s="16" t="n">
-        <v>162000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="16" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AU20" s="16" t="n">
-        <v>50000</v>
+        <v>459041</v>
       </c>
       <c r="AV20" s="16" t="n">
-        <v>459041</v>
+        <v>190959</v>
       </c>
       <c r="AW20" s="16" t="n">
-        <v>190959</v>
+        <v>0</v>
       </c>
       <c r="AX20" s="16" t="n">
         <v>0</v>
@@ -4877,11 +4877,11 @@
       <c r="R21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T21" s="13" t="n">
-        <v>0</v>
+      <c r="S21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="U21" s="13" t="s">
         <v>58</v>
@@ -4895,8 +4895,8 @@
       <c r="X21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y21" s="13" t="s">
-        <v>58</v>
+      <c r="Y21" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Z21" s="13" t="n">
         <v>0</v>
@@ -4913,8 +4913,8 @@
       <c r="AD21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE21" s="13" t="n">
-        <v>0</v>
+      <c r="AE21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF21" s="13" t="s">
         <v>58</v>
@@ -4931,20 +4931,20 @@
       <c r="AJ21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL21" s="13" t="n">
-        <v>0</v>
+      <c r="AK21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN21" s="13" t="s">
-        <v>58</v>
+      <c r="AN21" s="13" t="n">
+        <v>94000</v>
       </c>
       <c r="AO21" s="13" t="n">
-        <v>94000</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="13" t="n">
         <v>0</v>
@@ -4980,10 +4980,10 @@
         <v>0</v>
       </c>
       <c r="BA21" s="13" t="n">
-        <v>0</v>
+        <v>11712</v>
       </c>
       <c r="BB21" s="13" t="n">
-        <v>11712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5036,26 +5036,26 @@
       <c r="R22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S22" s="16" t="s">
-        <v>58</v>
+      <c r="S22" s="16" t="n">
+        <v>60072</v>
       </c>
       <c r="T22" s="16" t="n">
-        <v>60072</v>
+        <v>0</v>
       </c>
       <c r="U22" s="16" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="V22" s="16" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="W22" s="16" t="n">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="X22" s="16" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="Y22" s="16" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="16" t="n">
         <v>0</v>
@@ -5072,8 +5072,8 @@
       <c r="AD22" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE22" s="16" t="n">
-        <v>0</v>
+      <c r="AE22" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF22" s="16" t="s">
         <v>58</v>
@@ -5090,11 +5090,11 @@
       <c r="AJ22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL22" s="16" t="n">
-        <v>0</v>
+      <c r="AK22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AM22" s="16" t="s">
         <v>58</v>
@@ -5102,8 +5102,8 @@
       <c r="AN22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO22" s="16" t="s">
-        <v>58</v>
+      <c r="AO22" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP22" s="16" t="n">
         <v>0</v>
@@ -5130,19 +5130,19 @@
         <v>0</v>
       </c>
       <c r="AX22" s="16" t="n">
-        <v>0</v>
+        <v>13999</v>
       </c>
       <c r="AY22" s="16" t="n">
-        <v>13999</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="16" t="n">
         <v>0</v>
       </c>
       <c r="BA22" s="16" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="BB22" s="16" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5195,20 +5195,20 @@
       <c r="R23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T23" s="13" t="n">
-        <v>0</v>
+      <c r="S23" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="U23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V23" s="13" t="s">
-        <v>58</v>
+      <c r="V23" s="13" t="n">
+        <v>917</v>
       </c>
       <c r="W23" s="13" t="n">
-        <v>917</v>
+        <v>0</v>
       </c>
       <c r="X23" s="13" t="n">
         <v>0</v>
@@ -5231,8 +5231,8 @@
       <c r="AD23" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE23" s="13" t="n">
-        <v>0</v>
+      <c r="AE23" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF23" s="13" t="s">
         <v>58</v>
@@ -5249,11 +5249,11 @@
       <c r="AJ23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK23" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL23" s="13" t="n">
-        <v>0</v>
+      <c r="AK23" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM23" s="13" t="s">
         <v>58</v>
@@ -5261,8 +5261,8 @@
       <c r="AN23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO23" s="13" t="s">
-        <v>58</v>
+      <c r="AO23" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP23" s="13" t="n">
         <v>0</v>
@@ -5354,11 +5354,11 @@
       <c r="R24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S24" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T24" s="16" t="n">
-        <v>0</v>
+      <c r="S24" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="U24" s="16" t="s">
         <v>58</v>
@@ -5381,8 +5381,8 @@
       <c r="AA24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AB24" s="16" t="s">
-        <v>58</v>
+      <c r="AB24" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AC24" s="16" t="n">
         <v>0</v>
@@ -5390,8 +5390,8 @@
       <c r="AD24" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE24" s="16" t="n">
-        <v>0</v>
+      <c r="AE24" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF24" s="16" t="s">
         <v>58</v>
@@ -5408,11 +5408,11 @@
       <c r="AJ24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK24" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL24" s="16" t="n">
-        <v>0</v>
+      <c r="AK24" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AM24" s="16" t="s">
         <v>58</v>
@@ -5420,8 +5420,8 @@
       <c r="AN24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO24" s="16" t="s">
-        <v>58</v>
+      <c r="AO24" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP24" s="16" t="n">
         <v>0</v>
@@ -5451,10 +5451,10 @@
         <v>0</v>
       </c>
       <c r="AY24" s="16" t="n">
-        <v>0</v>
+        <v>60913</v>
       </c>
       <c r="AZ24" s="16" t="n">
-        <v>60913</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="16" t="n">
         <v>0</v>
@@ -5512,25 +5512,25 @@
         <v>0</v>
       </c>
       <c r="S25" s="18" t="n">
-        <v>0</v>
+        <v>60072</v>
       </c>
       <c r="T25" s="18" t="n">
-        <v>60072</v>
+        <v>0</v>
       </c>
       <c r="U25" s="18" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="V25" s="18" t="n">
-        <v>12000</v>
+        <v>8417</v>
       </c>
       <c r="W25" s="18" t="n">
-        <v>8417</v>
+        <v>0</v>
       </c>
       <c r="X25" s="18" t="n">
-        <v>0</v>
+        <v>259984</v>
       </c>
       <c r="Y25" s="18" t="n">
-        <v>259984</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="18" t="n">
         <v>0</v>
@@ -5575,10 +5575,10 @@
         <v>0</v>
       </c>
       <c r="AN25" s="18" t="n">
-        <v>0</v>
+        <v>94000</v>
       </c>
       <c r="AO25" s="18" t="n">
-        <v>94000</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="18" t="n">
         <v>0</v>
@@ -5587,37 +5587,37 @@
         <v>0</v>
       </c>
       <c r="AR25" s="18" t="n">
-        <v>0</v>
+        <v>162000</v>
       </c>
       <c r="AS25" s="18" t="n">
-        <v>162000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="18" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AU25" s="18" t="n">
-        <v>50000</v>
+        <v>459041</v>
       </c>
       <c r="AV25" s="18" t="n">
-        <v>459041</v>
+        <v>190959</v>
       </c>
       <c r="AW25" s="18" t="n">
-        <v>190959</v>
+        <v>0</v>
       </c>
       <c r="AX25" s="18" t="n">
-        <v>0</v>
+        <v>13999</v>
       </c>
       <c r="AY25" s="18" t="n">
-        <v>13999</v>
+        <v>60913</v>
       </c>
       <c r="AZ25" s="18" t="n">
-        <v>60913</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="18" t="n">
-        <v>0</v>
+        <v>14712</v>
       </c>
       <c r="BB25" s="18" t="n">
-        <v>14712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5728,8 +5728,8 @@
       <c r="S27" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="T27" s="18" t="s">
-        <v>58</v>
+      <c r="T27" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="U27" s="18" t="n">
         <v>0</v>
@@ -5883,112 +5883,112 @@
         <v>0</v>
       </c>
       <c r="S28" s="22" t="n">
-        <v>0</v>
+        <v>4382037</v>
       </c>
       <c r="T28" s="22" t="n">
-        <v>4382037</v>
+        <v>4199695</v>
       </c>
       <c r="U28" s="22" t="n">
-        <v>4199695</v>
+        <v>3083965</v>
       </c>
       <c r="V28" s="22" t="n">
-        <v>3083965</v>
+        <v>3295456</v>
       </c>
       <c r="W28" s="22" t="n">
-        <v>3295456</v>
+        <v>3619624</v>
       </c>
       <c r="X28" s="22" t="n">
-        <v>3619624</v>
+        <v>4020773</v>
       </c>
       <c r="Y28" s="22" t="n">
-        <v>4020773</v>
+        <v>4252726</v>
       </c>
       <c r="Z28" s="22" t="n">
-        <v>4252726</v>
+        <v>4221256</v>
       </c>
       <c r="AA28" s="22" t="n">
-        <v>4221256</v>
+        <v>4850704</v>
       </c>
       <c r="AB28" s="22" t="n">
-        <v>4850704</v>
+        <v>3313377</v>
       </c>
       <c r="AC28" s="22" t="n">
-        <v>3313377</v>
+        <v>2163733</v>
       </c>
       <c r="AD28" s="22" t="n">
-        <v>2163733</v>
+        <v>3514432</v>
       </c>
       <c r="AE28" s="22" t="n">
-        <v>3514432</v>
+        <v>4264074</v>
       </c>
       <c r="AF28" s="22" t="n">
-        <v>4264074</v>
+        <v>4275907</v>
       </c>
       <c r="AG28" s="22" t="n">
-        <v>4275907</v>
+        <v>3991161</v>
       </c>
       <c r="AH28" s="22" t="n">
-        <v>3991161</v>
+        <v>3079391</v>
       </c>
       <c r="AI28" s="22" t="n">
-        <v>3079391</v>
+        <v>3653509</v>
       </c>
       <c r="AJ28" s="22" t="n">
-        <v>3653509</v>
+        <v>4608161</v>
       </c>
       <c r="AK28" s="22" t="n">
-        <v>4608161</v>
+        <v>4879277</v>
       </c>
       <c r="AL28" s="22" t="n">
-        <v>4879277</v>
+        <v>4823864</v>
       </c>
       <c r="AM28" s="22" t="n">
-        <v>4823864</v>
+        <v>4791547</v>
       </c>
       <c r="AN28" s="22" t="n">
-        <v>4791547</v>
+        <v>3949888</v>
       </c>
       <c r="AO28" s="22" t="n">
-        <v>3949888</v>
+        <v>2396887</v>
       </c>
       <c r="AP28" s="22" t="n">
-        <v>2396887</v>
+        <v>2021179</v>
       </c>
       <c r="AQ28" s="22" t="n">
-        <v>2021179</v>
+        <v>3332842</v>
       </c>
       <c r="AR28" s="22" t="n">
-        <v>3332842</v>
+        <v>4007111</v>
       </c>
       <c r="AS28" s="22" t="n">
-        <v>4007111</v>
+        <v>4415693</v>
       </c>
       <c r="AT28" s="22" t="n">
-        <v>4415693</v>
+        <v>4865683</v>
       </c>
       <c r="AU28" s="22" t="n">
-        <v>4865683</v>
+        <v>4832936</v>
       </c>
       <c r="AV28" s="22" t="n">
-        <v>4832936</v>
+        <v>4632012</v>
       </c>
       <c r="AW28" s="22" t="n">
-        <v>4632012</v>
+        <v>4566882</v>
       </c>
       <c r="AX28" s="22" t="n">
-        <v>4566882</v>
+        <v>4836257</v>
       </c>
       <c r="AY28" s="22" t="n">
-        <v>4836257</v>
+        <v>4731740</v>
       </c>
       <c r="AZ28" s="22" t="n">
-        <v>4731740</v>
+        <v>3922008</v>
       </c>
       <c r="BA28" s="22" t="n">
-        <v>3922008</v>
+        <v>2760927</v>
       </c>
       <c r="BB28" s="22" t="n">
-        <v>2760927</v>
+        <v>1869258</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6475,65 +6475,65 @@
       <c r="R35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S35" s="13" t="s">
-        <v>58</v>
+      <c r="S35" s="13" t="n">
+        <v>74800</v>
       </c>
       <c r="T35" s="13" t="n">
-        <v>74800</v>
+        <v>49510</v>
       </c>
       <c r="U35" s="13" t="n">
-        <v>49510</v>
+        <v>52360</v>
       </c>
       <c r="V35" s="13" t="n">
-        <v>52360</v>
+        <v>108030</v>
       </c>
       <c r="W35" s="13" t="n">
-        <v>108030</v>
+        <v>41660</v>
       </c>
       <c r="X35" s="13" t="n">
-        <v>41660</v>
+        <v>20100</v>
       </c>
       <c r="Y35" s="13" t="n">
-        <v>20100</v>
+        <v>45900</v>
       </c>
       <c r="Z35" s="13" t="n">
-        <v>45900</v>
+        <v>51330</v>
       </c>
       <c r="AA35" s="13" t="n">
-        <v>51330</v>
+        <v>73400</v>
       </c>
       <c r="AB35" s="13" t="n">
-        <v>73400</v>
+        <v>87900</v>
       </c>
       <c r="AC35" s="13" t="n">
-        <v>87900</v>
+        <v>30570</v>
       </c>
       <c r="AD35" s="13" t="n">
-        <v>30570</v>
+        <v>26790</v>
       </c>
       <c r="AE35" s="13" t="n">
-        <v>26790</v>
+        <v>4505</v>
       </c>
       <c r="AF35" s="13" t="n">
-        <v>4505</v>
+        <v>14900</v>
       </c>
       <c r="AG35" s="13" t="n">
-        <v>14900</v>
+        <v>49490</v>
       </c>
       <c r="AH35" s="13" t="n">
-        <v>49490</v>
+        <v>37860</v>
       </c>
       <c r="AI35" s="13" t="n">
-        <v>37860</v>
+        <v>51690</v>
       </c>
       <c r="AJ35" s="13" t="n">
-        <v>51690</v>
+        <v>31040</v>
       </c>
       <c r="AK35" s="13" t="n">
-        <v>31040</v>
+        <v>12690</v>
       </c>
       <c r="AL35" s="13" t="n">
-        <v>12690</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="13" t="n">
         <v>0</v>
@@ -6578,10 +6578,10 @@
         <v>0</v>
       </c>
       <c r="BA35" s="13" t="n">
-        <v>0</v>
+        <v>11600</v>
       </c>
       <c r="BB35" s="13" t="n">
-        <v>11600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6634,113 +6634,113 @@
       <c r="R36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S36" s="16" t="s">
-        <v>58</v>
+      <c r="S36" s="16" t="n">
+        <v>752223</v>
       </c>
       <c r="T36" s="16" t="n">
-        <v>752223</v>
+        <v>577801</v>
       </c>
       <c r="U36" s="16" t="n">
-        <v>577801</v>
+        <v>51570</v>
       </c>
       <c r="V36" s="16" t="n">
-        <v>51570</v>
+        <v>261740</v>
       </c>
       <c r="W36" s="16" t="n">
-        <v>261740</v>
+        <v>518175</v>
       </c>
       <c r="X36" s="16" t="n">
-        <v>518175</v>
+        <v>622430</v>
       </c>
       <c r="Y36" s="16" t="n">
-        <v>622430</v>
+        <v>720287</v>
       </c>
       <c r="Z36" s="16" t="n">
-        <v>720287</v>
+        <v>429972</v>
       </c>
       <c r="AA36" s="16" t="n">
-        <v>429972</v>
+        <v>1071810</v>
       </c>
       <c r="AB36" s="16" t="n">
-        <v>1071810</v>
+        <v>795283</v>
       </c>
       <c r="AC36" s="16" t="n">
-        <v>795283</v>
+        <v>140</v>
       </c>
       <c r="AD36" s="16" t="n">
-        <v>140</v>
+        <v>4336</v>
       </c>
       <c r="AE36" s="16" t="n">
-        <v>4336</v>
+        <v>406631</v>
       </c>
       <c r="AF36" s="16" t="n">
-        <v>406631</v>
+        <v>740878</v>
       </c>
       <c r="AG36" s="16" t="n">
-        <v>740878</v>
+        <v>402425</v>
       </c>
       <c r="AH36" s="16" t="n">
-        <v>402425</v>
+        <v>90239</v>
       </c>
       <c r="AI36" s="16" t="n">
-        <v>90239</v>
+        <v>179692</v>
       </c>
       <c r="AJ36" s="16" t="n">
-        <v>179692</v>
+        <v>330801</v>
       </c>
       <c r="AK36" s="16" t="n">
-        <v>330801</v>
+        <v>496694</v>
       </c>
       <c r="AL36" s="16" t="n">
-        <v>496694</v>
+        <v>722123</v>
       </c>
       <c r="AM36" s="16" t="n">
-        <v>722123</v>
+        <v>831675</v>
       </c>
       <c r="AN36" s="16" t="n">
-        <v>831675</v>
+        <v>1005126</v>
       </c>
       <c r="AO36" s="16" t="n">
-        <v>1005126</v>
+        <v>530994</v>
       </c>
       <c r="AP36" s="16" t="n">
-        <v>530994</v>
+        <v>281762</v>
       </c>
       <c r="AQ36" s="16" t="n">
-        <v>281762</v>
+        <v>387185</v>
       </c>
       <c r="AR36" s="16" t="n">
-        <v>387185</v>
+        <v>903173</v>
       </c>
       <c r="AS36" s="16" t="n">
-        <v>903173</v>
+        <v>392215</v>
       </c>
       <c r="AT36" s="16" t="n">
-        <v>392215</v>
+        <v>738973</v>
       </c>
       <c r="AU36" s="16" t="n">
-        <v>738973</v>
+        <v>399751</v>
       </c>
       <c r="AV36" s="16" t="n">
-        <v>399751</v>
+        <v>744098</v>
       </c>
       <c r="AW36" s="16" t="n">
-        <v>744098</v>
+        <v>799395</v>
       </c>
       <c r="AX36" s="16" t="n">
-        <v>799395</v>
+        <v>852123</v>
       </c>
       <c r="AY36" s="16" t="n">
-        <v>852123</v>
+        <v>803299</v>
       </c>
       <c r="AZ36" s="16" t="n">
-        <v>803299</v>
+        <v>80983</v>
       </c>
       <c r="BA36" s="16" t="n">
-        <v>80983</v>
+        <v>30072</v>
       </c>
       <c r="BB36" s="16" t="n">
-        <v>30072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6793,113 +6793,113 @@
       <c r="R37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S37" s="13" t="s">
-        <v>58</v>
+      <c r="S37" s="13" t="n">
+        <v>426495</v>
       </c>
       <c r="T37" s="13" t="n">
-        <v>426495</v>
+        <v>229967</v>
       </c>
       <c r="U37" s="13" t="n">
-        <v>229967</v>
+        <v>542093</v>
       </c>
       <c r="V37" s="13" t="n">
-        <v>542093</v>
+        <v>136926</v>
       </c>
       <c r="W37" s="13" t="n">
-        <v>136926</v>
+        <v>293169</v>
       </c>
       <c r="X37" s="13" t="n">
-        <v>293169</v>
+        <v>297996</v>
       </c>
       <c r="Y37" s="13" t="n">
-        <v>297996</v>
+        <v>199523</v>
       </c>
       <c r="Z37" s="13" t="n">
-        <v>199523</v>
+        <v>266272</v>
       </c>
       <c r="AA37" s="13" t="n">
-        <v>266272</v>
+        <v>234466</v>
       </c>
       <c r="AB37" s="13" t="n">
-        <v>234466</v>
+        <v>277973</v>
       </c>
       <c r="AC37" s="13" t="n">
-        <v>277973</v>
+        <v>92889</v>
       </c>
       <c r="AD37" s="13" t="n">
-        <v>92889</v>
+        <v>102093</v>
       </c>
       <c r="AE37" s="13" t="n">
-        <v>102093</v>
+        <v>251122</v>
       </c>
       <c r="AF37" s="13" t="n">
-        <v>251122</v>
+        <v>358383</v>
       </c>
       <c r="AG37" s="13" t="n">
-        <v>358383</v>
+        <v>346755</v>
       </c>
       <c r="AH37" s="13" t="n">
-        <v>346755</v>
+        <v>459027</v>
       </c>
       <c r="AI37" s="13" t="n">
-        <v>459027</v>
+        <v>448605</v>
       </c>
       <c r="AJ37" s="13" t="n">
-        <v>448605</v>
+        <v>652949</v>
       </c>
       <c r="AK37" s="13" t="n">
-        <v>652949</v>
+        <v>375663</v>
       </c>
       <c r="AL37" s="13" t="n">
-        <v>375663</v>
+        <v>567910</v>
       </c>
       <c r="AM37" s="13" t="n">
-        <v>567910</v>
+        <v>490451</v>
       </c>
       <c r="AN37" s="13" t="n">
-        <v>490451</v>
+        <v>647267</v>
       </c>
       <c r="AO37" s="13" t="n">
-        <v>647267</v>
+        <v>477342</v>
       </c>
       <c r="AP37" s="13" t="n">
-        <v>477342</v>
+        <v>184964</v>
       </c>
       <c r="AQ37" s="13" t="n">
-        <v>184964</v>
+        <v>347176</v>
       </c>
       <c r="AR37" s="13" t="n">
-        <v>347176</v>
+        <v>364166</v>
       </c>
       <c r="AS37" s="13" t="n">
-        <v>364166</v>
+        <v>376206</v>
       </c>
       <c r="AT37" s="13" t="n">
-        <v>376206</v>
+        <v>416386</v>
       </c>
       <c r="AU37" s="13" t="n">
-        <v>416386</v>
+        <v>469644</v>
       </c>
       <c r="AV37" s="13" t="n">
-        <v>469644</v>
+        <v>373667</v>
       </c>
       <c r="AW37" s="13" t="n">
-        <v>373667</v>
+        <v>294985</v>
       </c>
       <c r="AX37" s="13" t="n">
-        <v>294985</v>
+        <v>449771</v>
       </c>
       <c r="AY37" s="13" t="n">
-        <v>449771</v>
+        <v>645881</v>
       </c>
       <c r="AZ37" s="13" t="n">
-        <v>645881</v>
+        <v>611907</v>
       </c>
       <c r="BA37" s="13" t="n">
-        <v>611907</v>
+        <v>294298</v>
       </c>
       <c r="BB37" s="13" t="n">
-        <v>294298</v>
+        <v>131133</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6952,113 +6952,113 @@
       <c r="R38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S38" s="16" t="s">
-        <v>58</v>
+      <c r="S38" s="16" t="n">
+        <v>1499775</v>
       </c>
       <c r="T38" s="16" t="n">
-        <v>1499775</v>
+        <v>1939835</v>
       </c>
       <c r="U38" s="16" t="n">
-        <v>1939835</v>
+        <v>146697</v>
       </c>
       <c r="V38" s="16" t="n">
-        <v>146697</v>
+        <v>1539019</v>
       </c>
       <c r="W38" s="16" t="n">
-        <v>1539019</v>
+        <v>1850035</v>
       </c>
       <c r="X38" s="16" t="n">
-        <v>1850035</v>
+        <v>156605</v>
       </c>
       <c r="Y38" s="16" t="n">
-        <v>156605</v>
+        <v>2044412</v>
       </c>
       <c r="Z38" s="16" t="n">
-        <v>2044412</v>
+        <v>1853548</v>
       </c>
       <c r="AA38" s="16" t="n">
-        <v>1853548</v>
+        <v>1713689</v>
       </c>
       <c r="AB38" s="16" t="n">
-        <v>1713689</v>
+        <v>2342738</v>
       </c>
       <c r="AC38" s="16" t="n">
-        <v>2342738</v>
+        <v>971035</v>
       </c>
       <c r="AD38" s="16" t="n">
-        <v>971035</v>
+        <v>1171225</v>
       </c>
       <c r="AE38" s="16" t="n">
-        <v>1171225</v>
+        <v>1659445</v>
       </c>
       <c r="AF38" s="16" t="n">
-        <v>1659445</v>
+        <v>1627956</v>
       </c>
       <c r="AG38" s="16" t="n">
-        <v>1627956</v>
+        <v>1975885</v>
       </c>
       <c r="AH38" s="16" t="n">
-        <v>1975885</v>
+        <v>1600558</v>
       </c>
       <c r="AI38" s="16" t="n">
-        <v>1600558</v>
+        <v>2252144</v>
       </c>
       <c r="AJ38" s="16" t="n">
-        <v>2252144</v>
+        <v>1729169</v>
       </c>
       <c r="AK38" s="16" t="n">
-        <v>1729169</v>
+        <v>2637646</v>
       </c>
       <c r="AL38" s="16" t="n">
-        <v>2637646</v>
+        <v>1648346</v>
       </c>
       <c r="AM38" s="16" t="n">
-        <v>1648346</v>
+        <v>1702649</v>
       </c>
       <c r="AN38" s="16" t="n">
-        <v>1702649</v>
+        <v>1481162</v>
       </c>
       <c r="AO38" s="16" t="n">
-        <v>1481162</v>
+        <v>2410527</v>
       </c>
       <c r="AP38" s="16" t="n">
-        <v>2410527</v>
+        <v>821219</v>
       </c>
       <c r="AQ38" s="16" t="n">
-        <v>821219</v>
+        <v>1761438</v>
       </c>
       <c r="AR38" s="16" t="n">
-        <v>1761438</v>
+        <v>1950621</v>
       </c>
       <c r="AS38" s="16" t="n">
-        <v>1950621</v>
+        <v>2531470</v>
       </c>
       <c r="AT38" s="16" t="n">
-        <v>2531470</v>
+        <v>2526320</v>
       </c>
       <c r="AU38" s="16" t="n">
-        <v>2526320</v>
+        <v>1848895</v>
       </c>
       <c r="AV38" s="16" t="n">
-        <v>1848895</v>
+        <v>2605249</v>
       </c>
       <c r="AW38" s="16" t="n">
-        <v>2605249</v>
+        <v>2542425</v>
       </c>
       <c r="AX38" s="16" t="n">
-        <v>2542425</v>
+        <v>2262532</v>
       </c>
       <c r="AY38" s="16" t="n">
-        <v>2262532</v>
+        <v>2299492</v>
       </c>
       <c r="AZ38" s="16" t="n">
-        <v>2299492</v>
+        <v>1962570</v>
       </c>
       <c r="BA38" s="16" t="n">
-        <v>1962570</v>
+        <v>1815643</v>
       </c>
       <c r="BB38" s="16" t="n">
-        <v>1815643</v>
+        <v>940521</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7111,113 +7111,113 @@
       <c r="R39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S39" s="13" t="s">
-        <v>58</v>
+      <c r="S39" s="13" t="n">
+        <v>943096</v>
       </c>
       <c r="T39" s="13" t="n">
-        <v>943096</v>
+        <v>1428908</v>
       </c>
       <c r="U39" s="13" t="n">
-        <v>1428908</v>
+        <v>83483</v>
       </c>
       <c r="V39" s="13" t="n">
-        <v>83483</v>
+        <v>493785</v>
       </c>
       <c r="W39" s="13" t="n">
-        <v>493785</v>
+        <v>352634</v>
       </c>
       <c r="X39" s="13" t="n">
-        <v>352634</v>
+        <v>525146</v>
       </c>
       <c r="Y39" s="13" t="n">
-        <v>525146</v>
+        <v>601436</v>
       </c>
       <c r="Z39" s="13" t="n">
-        <v>601436</v>
+        <v>912181</v>
       </c>
       <c r="AA39" s="13" t="n">
-        <v>912181</v>
+        <v>450075</v>
       </c>
       <c r="AB39" s="13" t="n">
-        <v>450075</v>
+        <v>618324</v>
       </c>
       <c r="AC39" s="13" t="n">
-        <v>618324</v>
+        <v>3000</v>
       </c>
       <c r="AD39" s="13" t="n">
-        <v>3000</v>
+        <v>21754</v>
       </c>
       <c r="AE39" s="13" t="n">
-        <v>21754</v>
+        <v>305557</v>
       </c>
       <c r="AF39" s="13" t="n">
-        <v>305557</v>
+        <v>397757</v>
       </c>
       <c r="AG39" s="13" t="n">
-        <v>397757</v>
+        <v>578818</v>
       </c>
       <c r="AH39" s="13" t="n">
-        <v>578818</v>
+        <v>380327</v>
       </c>
       <c r="AI39" s="13" t="n">
-        <v>380327</v>
+        <v>563590</v>
       </c>
       <c r="AJ39" s="13" t="n">
-        <v>563590</v>
+        <v>674610</v>
       </c>
       <c r="AK39" s="13" t="n">
-        <v>674610</v>
+        <v>679651</v>
       </c>
       <c r="AL39" s="13" t="n">
-        <v>679651</v>
+        <v>729653</v>
       </c>
       <c r="AM39" s="13" t="n">
-        <v>729653</v>
+        <v>686295</v>
       </c>
       <c r="AN39" s="13" t="n">
-        <v>686295</v>
+        <v>602854</v>
       </c>
       <c r="AO39" s="13" t="n">
-        <v>602854</v>
+        <v>253917</v>
       </c>
       <c r="AP39" s="13" t="n">
-        <v>253917</v>
+        <v>304949</v>
       </c>
       <c r="AQ39" s="13" t="n">
-        <v>304949</v>
+        <v>467328</v>
       </c>
       <c r="AR39" s="13" t="n">
-        <v>467328</v>
+        <v>426759</v>
       </c>
       <c r="AS39" s="13" t="n">
-        <v>426759</v>
+        <v>500171</v>
       </c>
       <c r="AT39" s="13" t="n">
-        <v>500171</v>
+        <v>713236</v>
       </c>
       <c r="AU39" s="13" t="n">
-        <v>713236</v>
+        <v>794824</v>
       </c>
       <c r="AV39" s="13" t="n">
-        <v>794824</v>
+        <v>913717</v>
       </c>
       <c r="AW39" s="13" t="n">
-        <v>913717</v>
+        <v>841974</v>
       </c>
       <c r="AX39" s="13" t="n">
-        <v>841974</v>
+        <v>569023</v>
       </c>
       <c r="AY39" s="13" t="n">
-        <v>569023</v>
+        <v>758427</v>
       </c>
       <c r="AZ39" s="13" t="n">
-        <v>758427</v>
+        <v>398650</v>
       </c>
       <c r="BA39" s="13" t="n">
-        <v>398650</v>
+        <v>819053</v>
       </c>
       <c r="BB39" s="13" t="n">
-        <v>819053</v>
+        <v>359629</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7270,113 +7270,113 @@
       <c r="R40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S40" s="16" t="s">
-        <v>58</v>
+      <c r="S40" s="16" t="n">
+        <v>355990</v>
       </c>
       <c r="T40" s="16" t="n">
-        <v>355990</v>
+        <v>318031</v>
       </c>
       <c r="U40" s="16" t="n">
-        <v>318031</v>
+        <v>434829</v>
       </c>
       <c r="V40" s="16" t="n">
-        <v>434829</v>
+        <v>461513</v>
       </c>
       <c r="W40" s="16" t="n">
-        <v>461513</v>
+        <v>838555</v>
       </c>
       <c r="X40" s="16" t="n">
-        <v>838555</v>
+        <v>796619</v>
       </c>
       <c r="Y40" s="16" t="n">
-        <v>796619</v>
+        <v>846614</v>
       </c>
       <c r="Z40" s="16" t="n">
-        <v>846614</v>
+        <v>857949</v>
       </c>
       <c r="AA40" s="16" t="n">
-        <v>857949</v>
+        <v>848392</v>
       </c>
       <c r="AB40" s="16" t="n">
-        <v>848392</v>
+        <v>768795</v>
       </c>
       <c r="AC40" s="16" t="n">
-        <v>768795</v>
+        <v>712992</v>
       </c>
       <c r="AD40" s="16" t="n">
-        <v>712992</v>
+        <v>525816</v>
       </c>
       <c r="AE40" s="16" t="n">
-        <v>525816</v>
+        <v>881380</v>
       </c>
       <c r="AF40" s="16" t="n">
-        <v>881380</v>
+        <v>716593</v>
       </c>
       <c r="AG40" s="16" t="n">
-        <v>716593</v>
+        <v>533462</v>
       </c>
       <c r="AH40" s="16" t="n">
-        <v>533462</v>
+        <v>660993</v>
       </c>
       <c r="AI40" s="16" t="n">
-        <v>660993</v>
+        <v>749759</v>
       </c>
       <c r="AJ40" s="16" t="n">
-        <v>749759</v>
+        <v>340056</v>
       </c>
       <c r="AK40" s="16" t="n">
-        <v>340056</v>
+        <v>722695</v>
       </c>
       <c r="AL40" s="16" t="n">
-        <v>722695</v>
+        <v>764593</v>
       </c>
       <c r="AM40" s="16" t="n">
-        <v>764593</v>
+        <v>691997</v>
       </c>
       <c r="AN40" s="16" t="n">
-        <v>691997</v>
+        <v>314945</v>
       </c>
       <c r="AO40" s="16" t="n">
-        <v>314945</v>
+        <v>495918</v>
       </c>
       <c r="AP40" s="16" t="n">
-        <v>495918</v>
+        <v>301401</v>
       </c>
       <c r="AQ40" s="16" t="n">
-        <v>301401</v>
+        <v>489555</v>
       </c>
       <c r="AR40" s="16" t="n">
-        <v>489555</v>
+        <v>406254</v>
       </c>
       <c r="AS40" s="16" t="n">
-        <v>406254</v>
+        <v>463185</v>
       </c>
       <c r="AT40" s="16" t="n">
-        <v>463185</v>
+        <v>637538</v>
       </c>
       <c r="AU40" s="16" t="n">
-        <v>637538</v>
+        <v>518565</v>
       </c>
       <c r="AV40" s="16" t="n">
-        <v>518565</v>
+        <v>276861</v>
       </c>
       <c r="AW40" s="16" t="n">
-        <v>276861</v>
+        <v>198884</v>
       </c>
       <c r="AX40" s="16" t="n">
-        <v>198884</v>
+        <v>361040</v>
       </c>
       <c r="AY40" s="16" t="n">
-        <v>361040</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="16" t="n">
-        <v>0</v>
+        <v>222480</v>
       </c>
       <c r="BA40" s="16" t="n">
-        <v>222480</v>
+        <v>360600</v>
       </c>
       <c r="BB40" s="16" t="n">
-        <v>360600</v>
+        <v>112450</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7428,112 +7428,112 @@
         <v>0</v>
       </c>
       <c r="S41" s="18" t="n">
-        <v>0</v>
+        <v>4052379</v>
       </c>
       <c r="T41" s="18" t="n">
-        <v>4052379</v>
+        <v>4544052</v>
       </c>
       <c r="U41" s="18" t="n">
-        <v>4544052</v>
+        <v>1311032</v>
       </c>
       <c r="V41" s="18" t="n">
-        <v>1311032</v>
+        <v>3001013</v>
       </c>
       <c r="W41" s="18" t="n">
-        <v>3001013</v>
+        <v>3894228</v>
       </c>
       <c r="X41" s="18" t="n">
-        <v>3894228</v>
+        <v>2418896</v>
       </c>
       <c r="Y41" s="18" t="n">
-        <v>2418896</v>
+        <v>4458172</v>
       </c>
       <c r="Z41" s="18" t="n">
-        <v>4458172</v>
+        <v>4371252</v>
       </c>
       <c r="AA41" s="18" t="n">
-        <v>4371252</v>
+        <v>4391832</v>
       </c>
       <c r="AB41" s="18" t="n">
-        <v>4391832</v>
+        <v>4891013</v>
       </c>
       <c r="AC41" s="18" t="n">
-        <v>4891013</v>
+        <v>1810626</v>
       </c>
       <c r="AD41" s="18" t="n">
-        <v>1810626</v>
+        <v>1852014</v>
       </c>
       <c r="AE41" s="18" t="n">
-        <v>1852014</v>
+        <v>3508640</v>
       </c>
       <c r="AF41" s="18" t="n">
-        <v>3508640</v>
+        <v>3856467</v>
       </c>
       <c r="AG41" s="18" t="n">
-        <v>3856467</v>
+        <v>3886835</v>
       </c>
       <c r="AH41" s="18" t="n">
-        <v>3886835</v>
+        <v>3229004</v>
       </c>
       <c r="AI41" s="18" t="n">
-        <v>3229004</v>
+        <v>4245480</v>
       </c>
       <c r="AJ41" s="18" t="n">
-        <v>4245480</v>
+        <v>3758625</v>
       </c>
       <c r="AK41" s="18" t="n">
-        <v>3758625</v>
+        <v>4925039</v>
       </c>
       <c r="AL41" s="18" t="n">
-        <v>4925039</v>
+        <v>4432625</v>
       </c>
       <c r="AM41" s="18" t="n">
-        <v>4432625</v>
+        <v>4403067</v>
       </c>
       <c r="AN41" s="18" t="n">
-        <v>4403067</v>
+        <v>4051354</v>
       </c>
       <c r="AO41" s="18" t="n">
-        <v>4051354</v>
+        <v>4168698</v>
       </c>
       <c r="AP41" s="18" t="n">
-        <v>4168698</v>
+        <v>1894295</v>
       </c>
       <c r="AQ41" s="18" t="n">
-        <v>1894295</v>
+        <v>3452682</v>
       </c>
       <c r="AR41" s="18" t="n">
-        <v>3452682</v>
+        <v>4050973</v>
       </c>
       <c r="AS41" s="18" t="n">
-        <v>4050973</v>
+        <v>4263247</v>
       </c>
       <c r="AT41" s="18" t="n">
-        <v>4263247</v>
+        <v>5032453</v>
       </c>
       <c r="AU41" s="18" t="n">
-        <v>5032453</v>
+        <v>4031679</v>
       </c>
       <c r="AV41" s="18" t="n">
-        <v>4031679</v>
+        <v>4913592</v>
       </c>
       <c r="AW41" s="18" t="n">
-        <v>4913592</v>
+        <v>4677663</v>
       </c>
       <c r="AX41" s="18" t="n">
-        <v>4677663</v>
+        <v>4494489</v>
       </c>
       <c r="AY41" s="18" t="n">
-        <v>4494489</v>
+        <v>4507099</v>
       </c>
       <c r="AZ41" s="18" t="n">
-        <v>4507099</v>
+        <v>3276590</v>
       </c>
       <c r="BA41" s="18" t="n">
-        <v>3276590</v>
+        <v>3331266</v>
       </c>
       <c r="BB41" s="18" t="n">
-        <v>3331266</v>
+        <v>1543733</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7643,11 +7643,11 @@
       <c r="R43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T43" s="13" t="n">
-        <v>0</v>
+      <c r="S43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="U43" s="13" t="s">
         <v>58</v>
@@ -7676,20 +7676,20 @@
       <c r="AC43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE43" s="13" t="n">
-        <v>0</v>
+      <c r="AD43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH43" s="13" t="n">
-        <v>0</v>
+      <c r="AG43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI43" s="13" t="s">
         <v>58</v>
@@ -7697,11 +7697,11 @@
       <c r="AJ43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL43" s="13" t="n">
-        <v>0</v>
+      <c r="AK43" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM43" s="13" t="s">
         <v>58</v>
@@ -7709,8 +7709,8 @@
       <c r="AN43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO43" s="13" t="s">
-        <v>58</v>
+      <c r="AO43" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP43" s="13" t="n">
         <v>0</v>
@@ -7802,11 +7802,11 @@
       <c r="R44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S44" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T44" s="16" t="n">
-        <v>0</v>
+      <c r="S44" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="U44" s="16" t="s">
         <v>58</v>
@@ -7817,11 +7817,11 @@
       <c r="W44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X44" s="16" t="s">
-        <v>58</v>
+      <c r="X44" s="16" t="n">
+        <v>229984</v>
       </c>
       <c r="Y44" s="16" t="n">
-        <v>229984</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="16" t="n">
         <v>0</v>
@@ -7838,17 +7838,17 @@
       <c r="AD44" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE44" s="16" t="n">
-        <v>0</v>
+      <c r="AE44" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AG44" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH44" s="16" t="n">
-        <v>0</v>
+      <c r="AG44" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AI44" s="16" t="s">
         <v>58</v>
@@ -7856,11 +7856,11 @@
       <c r="AJ44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK44" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL44" s="16" t="n">
-        <v>0</v>
+      <c r="AK44" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AM44" s="16" t="s">
         <v>58</v>
@@ -7868,8 +7868,8 @@
       <c r="AN44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO44" s="16" t="s">
-        <v>58</v>
+      <c r="AO44" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP44" s="16" t="n">
         <v>0</v>
@@ -7878,22 +7878,22 @@
         <v>0</v>
       </c>
       <c r="AR44" s="16" t="n">
-        <v>0</v>
+        <v>162000</v>
       </c>
       <c r="AS44" s="16" t="n">
-        <v>162000</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="16" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AU44" s="16" t="n">
-        <v>50000</v>
+        <v>459041</v>
       </c>
       <c r="AV44" s="16" t="n">
-        <v>459041</v>
+        <v>190959</v>
       </c>
       <c r="AW44" s="16" t="n">
-        <v>190959</v>
+        <v>0</v>
       </c>
       <c r="AX44" s="16" t="n">
         <v>0</v>
@@ -7961,11 +7961,11 @@
       <c r="R45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T45" s="13" t="n">
-        <v>0</v>
+      <c r="S45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="U45" s="13" t="s">
         <v>58</v>
@@ -7979,8 +7979,8 @@
       <c r="X45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="13" t="s">
-        <v>58</v>
+      <c r="Y45" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Z45" s="13" t="n">
         <v>0</v>
@@ -7997,17 +7997,17 @@
       <c r="AD45" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE45" s="13" t="n">
-        <v>0</v>
+      <c r="AE45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH45" s="13" t="n">
-        <v>0</v>
+      <c r="AG45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI45" s="13" t="s">
         <v>58</v>
@@ -8015,20 +8015,20 @@
       <c r="AJ45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL45" s="13" t="n">
-        <v>0</v>
+      <c r="AK45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN45" s="13" t="s">
-        <v>58</v>
+      <c r="AN45" s="13" t="n">
+        <v>94000</v>
       </c>
       <c r="AO45" s="13" t="n">
-        <v>94000</v>
+        <v>0</v>
       </c>
       <c r="AP45" s="13" t="n">
         <v>0</v>
@@ -8064,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="BA45" s="13" t="n">
-        <v>0</v>
+        <v>11712</v>
       </c>
       <c r="BB45" s="13" t="n">
-        <v>11712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8120,26 +8120,26 @@
       <c r="R46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S46" s="16" t="s">
-        <v>58</v>
+      <c r="S46" s="16" t="n">
+        <v>60072</v>
       </c>
       <c r="T46" s="16" t="n">
-        <v>60072</v>
+        <v>0</v>
       </c>
       <c r="U46" s="16" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="V46" s="16" t="n">
-        <v>12000</v>
+        <v>7500</v>
       </c>
       <c r="W46" s="16" t="n">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="X46" s="16" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="Y46" s="16" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="16" t="n">
         <v>0</v>
@@ -8151,22 +8151,22 @@
         <v>0</v>
       </c>
       <c r="AC46" s="16" t="n">
-        <v>0</v>
+        <v>58680</v>
       </c>
       <c r="AD46" s="16" t="n">
-        <v>58680</v>
-      </c>
-      <c r="AE46" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AG46" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH46" s="16" t="n">
-        <v>0</v>
+      <c r="AG46" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AI46" s="16" t="s">
         <v>58</v>
@@ -8174,11 +8174,11 @@
       <c r="AJ46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK46" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL46" s="16" t="n">
-        <v>0</v>
+      <c r="AK46" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AM46" s="16" t="s">
         <v>58</v>
@@ -8186,8 +8186,8 @@
       <c r="AN46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO46" s="16" t="s">
-        <v>58</v>
+      <c r="AO46" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP46" s="16" t="n">
         <v>0</v>
@@ -8214,19 +8214,19 @@
         <v>0</v>
       </c>
       <c r="AX46" s="16" t="n">
-        <v>0</v>
+        <v>13999</v>
       </c>
       <c r="AY46" s="16" t="n">
-        <v>13999</v>
+        <v>0</v>
       </c>
       <c r="AZ46" s="16" t="n">
         <v>0</v>
       </c>
       <c r="BA46" s="16" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="BB46" s="16" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8279,20 +8279,20 @@
       <c r="R47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T47" s="13" t="n">
-        <v>0</v>
+      <c r="S47" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="U47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V47" s="13" t="s">
-        <v>58</v>
+      <c r="V47" s="13" t="n">
+        <v>917</v>
       </c>
       <c r="W47" s="13" t="n">
-        <v>917</v>
+        <v>0</v>
       </c>
       <c r="X47" s="13" t="n">
         <v>0</v>
@@ -8315,17 +8315,17 @@
       <c r="AD47" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE47" s="13" t="n">
-        <v>0</v>
+      <c r="AE47" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH47" s="13" t="n">
-        <v>0</v>
+      <c r="AG47" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI47" s="13" t="s">
         <v>58</v>
@@ -8333,11 +8333,11 @@
       <c r="AJ47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL47" s="13" t="n">
-        <v>0</v>
+      <c r="AK47" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM47" s="13" t="s">
         <v>58</v>
@@ -8345,8 +8345,8 @@
       <c r="AN47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO47" s="13" t="s">
-        <v>58</v>
+      <c r="AO47" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP47" s="13" t="n">
         <v>0</v>
@@ -8438,11 +8438,11 @@
       <c r="R48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S48" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T48" s="16" t="n">
-        <v>0</v>
+      <c r="S48" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="U48" s="16" t="s">
         <v>58</v>
@@ -8465,8 +8465,8 @@
       <c r="AA48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AB48" s="16" t="s">
-        <v>58</v>
+      <c r="AB48" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AC48" s="16" t="n">
         <v>0</v>
@@ -8474,17 +8474,17 @@
       <c r="AD48" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE48" s="16" t="n">
-        <v>0</v>
+      <c r="AE48" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AG48" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH48" s="16" t="n">
-        <v>0</v>
+      <c r="AG48" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AI48" s="16" t="s">
         <v>58</v>
@@ -8492,11 +8492,11 @@
       <c r="AJ48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK48" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL48" s="16" t="n">
-        <v>0</v>
+      <c r="AK48" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AM48" s="16" t="s">
         <v>58</v>
@@ -8504,8 +8504,8 @@
       <c r="AN48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO48" s="16" t="s">
-        <v>58</v>
+      <c r="AO48" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP48" s="16" t="n">
         <v>0</v>
@@ -8535,10 +8535,10 @@
         <v>0</v>
       </c>
       <c r="AY48" s="16" t="n">
-        <v>0</v>
+        <v>133913</v>
       </c>
       <c r="AZ48" s="16" t="n">
-        <v>133913</v>
+        <v>0</v>
       </c>
       <c r="BA48" s="16" t="n">
         <v>0</v>
@@ -8596,25 +8596,25 @@
         <v>0</v>
       </c>
       <c r="S49" s="18" t="n">
-        <v>0</v>
+        <v>60072</v>
       </c>
       <c r="T49" s="18" t="n">
-        <v>60072</v>
+        <v>0</v>
       </c>
       <c r="U49" s="18" t="n">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="V49" s="18" t="n">
-        <v>12000</v>
+        <v>8417</v>
       </c>
       <c r="W49" s="18" t="n">
-        <v>8417</v>
+        <v>0</v>
       </c>
       <c r="X49" s="18" t="n">
-        <v>0</v>
+        <v>259984</v>
       </c>
       <c r="Y49" s="18" t="n">
-        <v>259984</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="18" t="n">
         <v>0</v>
@@ -8626,10 +8626,10 @@
         <v>0</v>
       </c>
       <c r="AC49" s="18" t="n">
-        <v>0</v>
+        <v>58680</v>
       </c>
       <c r="AD49" s="18" t="n">
-        <v>58680</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="18" t="n">
         <v>0</v>
@@ -8659,10 +8659,10 @@
         <v>0</v>
       </c>
       <c r="AN49" s="18" t="n">
-        <v>0</v>
+        <v>94000</v>
       </c>
       <c r="AO49" s="18" t="n">
-        <v>94000</v>
+        <v>0</v>
       </c>
       <c r="AP49" s="18" t="n">
         <v>0</v>
@@ -8671,37 +8671,37 @@
         <v>0</v>
       </c>
       <c r="AR49" s="18" t="n">
-        <v>0</v>
+        <v>162000</v>
       </c>
       <c r="AS49" s="18" t="n">
-        <v>162000</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="18" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="AU49" s="18" t="n">
-        <v>50000</v>
+        <v>459041</v>
       </c>
       <c r="AV49" s="18" t="n">
-        <v>459041</v>
+        <v>190959</v>
       </c>
       <c r="AW49" s="18" t="n">
-        <v>190959</v>
+        <v>0</v>
       </c>
       <c r="AX49" s="18" t="n">
-        <v>0</v>
+        <v>13999</v>
       </c>
       <c r="AY49" s="18" t="n">
-        <v>13999</v>
+        <v>133913</v>
       </c>
       <c r="AZ49" s="18" t="n">
-        <v>133913</v>
+        <v>0</v>
       </c>
       <c r="BA49" s="18" t="n">
-        <v>0</v>
+        <v>14712</v>
       </c>
       <c r="BB49" s="18" t="n">
-        <v>14712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8812,8 +8812,8 @@
       <c r="S51" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="T51" s="18" t="s">
-        <v>58</v>
+      <c r="T51" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="U51" s="18" t="n">
         <v>0</v>
@@ -9031,8 +9031,8 @@
       <c r="T53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U53" s="13" t="s">
-        <v>58</v>
+      <c r="U53" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V53" s="13" t="n">
         <v>0</v>
@@ -9044,37 +9044,37 @@
         <v>0</v>
       </c>
       <c r="Y53" s="13" t="n">
-        <v>0</v>
+        <v>-10020</v>
       </c>
       <c r="Z53" s="13" t="n">
-        <v>-10020</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="13" t="n">
-        <v>0</v>
+        <v>-708</v>
       </c>
       <c r="AB53" s="13" t="n">
-        <v>-708</v>
+        <v>-59295</v>
       </c>
       <c r="AC53" s="13" t="n">
-        <v>-59295</v>
+        <v>-60</v>
       </c>
       <c r="AD53" s="13" t="n">
-        <v>-60</v>
-      </c>
-      <c r="AE53" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AE53" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF53" s="13" t="n">
+        <v>-360</v>
       </c>
       <c r="AG53" s="13" t="n">
-        <v>-360</v>
+        <v>-10017</v>
       </c>
       <c r="AH53" s="13" t="n">
-        <v>-10017</v>
-      </c>
-      <c r="AI53" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI53" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ53" s="13" t="s">
         <v>58</v>
@@ -9109,29 +9109,29 @@
       <c r="AT53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV53" s="13" t="n">
+      <c r="AU53" s="13" t="n">
         <v>-100</v>
       </c>
-      <c r="AW53" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX53" s="13" t="n">
+      <c r="AV53" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW53" s="13" t="n">
         <v>-30</v>
       </c>
+      <c r="AX53" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AY53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ53" s="13" t="s">
-        <v>58</v>
+      <c r="AZ53" s="13" t="n">
+        <v>-3000</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>-3000</v>
-      </c>
-      <c r="BB53" s="13" t="n">
         <v>-30102</v>
+      </c>
+      <c r="BB53" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9187,72 +9187,72 @@
       <c r="S54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T54" s="16" t="s">
-        <v>58</v>
+      <c r="T54" s="16" t="n">
+        <v>-102010</v>
       </c>
       <c r="U54" s="16" t="n">
-        <v>-102010</v>
+        <v>-190000</v>
       </c>
       <c r="V54" s="16" t="n">
-        <v>-190000</v>
+        <v>-32</v>
       </c>
       <c r="W54" s="16" t="n">
-        <v>-32</v>
+        <v>-12121</v>
       </c>
       <c r="X54" s="16" t="n">
-        <v>-12121</v>
+        <v>-10443</v>
       </c>
       <c r="Y54" s="16" t="n">
-        <v>-10443</v>
+        <v>-1863</v>
       </c>
       <c r="Z54" s="16" t="n">
-        <v>-1863</v>
+        <v>-4509</v>
       </c>
       <c r="AA54" s="16" t="n">
-        <v>-4509</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="16" t="n">
-        <v>0</v>
+        <v>-9647</v>
       </c>
       <c r="AC54" s="16" t="n">
-        <v>-9647</v>
+        <v>-15</v>
       </c>
       <c r="AD54" s="16" t="n">
+        <v>-8100</v>
+      </c>
+      <c r="AE54" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF54" s="16" t="n">
+        <v>-3600</v>
+      </c>
+      <c r="AG54" s="16" t="n">
         <v>-15</v>
       </c>
-      <c r="AE54" s="16" t="n">
-        <v>-8100</v>
-      </c>
-      <c r="AF54" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG54" s="16" t="n">
-        <v>-3600</v>
-      </c>
       <c r="AH54" s="16" t="n">
-        <v>-15</v>
-      </c>
-      <c r="AI54" s="16" t="n">
         <v>-810</v>
       </c>
-      <c r="AJ54" s="16" t="s">
-        <v>58</v>
+      <c r="AI54" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ54" s="16" t="n">
+        <v>-158730</v>
       </c>
       <c r="AK54" s="16" t="n">
-        <v>-158730</v>
-      </c>
-      <c r="AL54" s="16" t="n">
         <v>-14</v>
       </c>
+      <c r="AL54" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AM54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AN54" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO54" s="16" t="n">
+      <c r="AN54" s="16" t="n">
         <v>-2010</v>
       </c>
+      <c r="AO54" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AP54" s="16" t="s">
         <v>58</v>
       </c>
@@ -9268,29 +9268,29 @@
       <c r="AT54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU54" s="16" t="s">
-        <v>58</v>
+      <c r="AU54" s="16" t="n">
+        <v>-11</v>
       </c>
       <c r="AV54" s="16" t="n">
-        <v>-11</v>
+        <v>-5010</v>
       </c>
       <c r="AW54" s="16" t="n">
-        <v>-5010</v>
-      </c>
-      <c r="AX54" s="16" t="n">
         <v>-364</v>
       </c>
+      <c r="AX54" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AY54" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AZ54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BA54" s="16" t="s">
-        <v>58</v>
+      <c r="BA54" s="16" t="n">
+        <v>-35010</v>
       </c>
       <c r="BB54" s="16" t="n">
-        <v>-35010</v>
+        <v>-450</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9346,69 +9346,69 @@
       <c r="S55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T55" s="13" t="s">
-        <v>58</v>
+      <c r="T55" s="13" t="n">
+        <v>-67027</v>
       </c>
       <c r="U55" s="13" t="n">
-        <v>-67027</v>
+        <v>-77000</v>
       </c>
       <c r="V55" s="13" t="n">
-        <v>-77000</v>
+        <v>-6</v>
       </c>
       <c r="W55" s="13" t="n">
-        <v>-6</v>
+        <v>-23450</v>
       </c>
       <c r="X55" s="13" t="n">
-        <v>-23450</v>
+        <v>-1</v>
       </c>
       <c r="Y55" s="13" t="n">
-        <v>-1</v>
+        <v>-29970</v>
       </c>
       <c r="Z55" s="13" t="n">
-        <v>-29970</v>
+        <v>-1456</v>
       </c>
       <c r="AA55" s="13" t="n">
-        <v>-1456</v>
+        <v>-10000</v>
       </c>
       <c r="AB55" s="13" t="n">
-        <v>-10000</v>
+        <v>-35724</v>
       </c>
       <c r="AC55" s="13" t="n">
-        <v>-35724</v>
+        <v>-1927</v>
       </c>
       <c r="AD55" s="13" t="n">
-        <v>-1927</v>
-      </c>
-      <c r="AE55" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AE55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG55" s="13" t="s">
-        <v>58</v>
+      <c r="AG55" s="13" t="n">
+        <v>-9</v>
       </c>
       <c r="AH55" s="13" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AI55" s="13" t="n">
         <v>-15</v>
       </c>
-      <c r="AJ55" s="13" t="s">
-        <v>58</v>
+      <c r="AI55" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ55" s="13" t="n">
+        <v>-53875</v>
       </c>
       <c r="AK55" s="13" t="n">
-        <v>-53875</v>
-      </c>
-      <c r="AL55" s="13" t="n">
         <v>-4</v>
       </c>
-      <c r="AM55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN55" s="13" t="n">
+      <c r="AL55" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM55" s="13" t="n">
         <v>-13</v>
       </c>
+      <c r="AN55" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO55" s="13" t="s">
         <v>58</v>
       </c>
@@ -9418,38 +9418,38 @@
       <c r="AQ55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS55" s="13" t="n">
+      <c r="AR55" s="13" t="n">
         <v>11202</v>
       </c>
+      <c r="AS55" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU55" s="13" t="s">
-        <v>58</v>
+      <c r="AU55" s="13" t="n">
+        <v>-12</v>
       </c>
       <c r="AV55" s="13" t="n">
-        <v>-12</v>
+        <v>-12048</v>
       </c>
       <c r="AW55" s="13" t="n">
-        <v>-12048</v>
+        <v>-640</v>
       </c>
       <c r="AX55" s="13" t="n">
-        <v>-640</v>
-      </c>
-      <c r="AY55" s="13" t="n">
         <v>-8231</v>
       </c>
-      <c r="AZ55" s="13" t="s">
-        <v>58</v>
+      <c r="AY55" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ55" s="13" t="n">
+        <v>-15999</v>
       </c>
       <c r="BA55" s="13" t="n">
-        <v>-15999</v>
+        <v>-11325</v>
       </c>
       <c r="BB55" s="13" t="n">
-        <v>-11325</v>
+        <v>-15310</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9505,63 +9505,63 @@
       <c r="S56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T56" s="16" t="s">
-        <v>58</v>
+      <c r="T56" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U56" s="16" t="n">
-        <v>0</v>
+        <v>-190016</v>
       </c>
       <c r="V56" s="16" t="n">
-        <v>-190016</v>
+        <v>0</v>
       </c>
       <c r="W56" s="16" t="n">
-        <v>0</v>
+        <v>-30012</v>
       </c>
       <c r="X56" s="16" t="n">
-        <v>-30012</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="16" t="n">
-        <v>0</v>
+        <v>-8460</v>
       </c>
       <c r="Z56" s="16" t="n">
-        <v>-8460</v>
+        <v>-9825</v>
       </c>
       <c r="AA56" s="16" t="n">
-        <v>-9825</v>
+        <v>-24</v>
       </c>
       <c r="AB56" s="16" t="n">
+        <v>-107379</v>
+      </c>
+      <c r="AC56" s="16" t="n">
         <v>-24</v>
       </c>
-      <c r="AC56" s="16" t="n">
-        <v>-107379</v>
-      </c>
       <c r="AD56" s="16" t="n">
-        <v>-24</v>
+        <v>0</v>
       </c>
       <c r="AE56" s="16" t="n">
-        <v>0</v>
+        <v>-34056</v>
       </c>
       <c r="AF56" s="16" t="n">
-        <v>-34056</v>
+        <v>-29</v>
       </c>
       <c r="AG56" s="16" t="n">
-        <v>-29</v>
+        <v>-10257</v>
       </c>
       <c r="AH56" s="16" t="n">
-        <v>-10257</v>
-      </c>
-      <c r="AI56" s="16" t="n">
         <v>-120</v>
       </c>
+      <c r="AI56" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AK56" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL56" s="16" t="n">
+      <c r="AK56" s="16" t="n">
         <v>-529</v>
       </c>
+      <c r="AL56" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AM56" s="16" t="s">
         <v>58</v>
       </c>
@@ -9571,12 +9571,12 @@
       <c r="AO56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP56" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ56" s="16" t="n">
+      <c r="AP56" s="16" t="n">
         <v>-192</v>
       </c>
+      <c r="AQ56" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AR56" s="16" t="s">
         <v>58</v>
       </c>
@@ -9586,17 +9586,17 @@
       <c r="AT56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU56" s="16" t="s">
-        <v>58</v>
+      <c r="AU56" s="16" t="n">
+        <v>-20</v>
       </c>
       <c r="AV56" s="16" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="AW56" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AX56" s="16" t="n">
-        <v>0</v>
+      <c r="AX56" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY56" s="16" t="s">
         <v>58</v>
@@ -9664,8 +9664,8 @@
       <c r="S57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T57" s="13" t="s">
-        <v>58</v>
+      <c r="T57" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U57" s="13" t="n">
         <v>0</v>
@@ -9692,82 +9692,82 @@
         <v>0</v>
       </c>
       <c r="AC57" s="13" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="AD57" s="13" t="n">
-        <v>-60</v>
-      </c>
-      <c r="AE57" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AE57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF57" s="13" t="n">
+        <v>-29862</v>
       </c>
       <c r="AG57" s="13" t="n">
-        <v>-29862</v>
+        <v>-9</v>
       </c>
       <c r="AH57" s="13" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AI57" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="13" t="n">
         <v>-18000</v>
       </c>
-      <c r="AK57" s="13" t="s">
-        <v>58</v>
+      <c r="AJ57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK57" s="13" t="n">
+        <v>-4</v>
       </c>
       <c r="AL57" s="13" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AM57" s="13" t="n">
         <v>-1</v>
       </c>
-      <c r="AN57" s="13" t="s">
-        <v>58</v>
+      <c r="AM57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN57" s="13" t="n">
+        <v>-94040</v>
       </c>
       <c r="AO57" s="13" t="n">
-        <v>-94040</v>
+        <v>-26</v>
       </c>
       <c r="AP57" s="13" t="n">
-        <v>-26</v>
-      </c>
-      <c r="AQ57" s="13" t="n">
         <v>-8</v>
       </c>
-      <c r="AR57" s="13" t="s">
-        <v>58</v>
+      <c r="AQ57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR57" s="13" t="n">
+        <v>-8</v>
       </c>
       <c r="AS57" s="13" t="n">
+        <v>-406764</v>
+      </c>
+      <c r="AT57" s="13" t="n">
+        <v>-12</v>
+      </c>
+      <c r="AU57" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV57" s="13" t="n">
+        <v>-203</v>
+      </c>
+      <c r="AW57" s="13" t="n">
+        <v>-197</v>
+      </c>
+      <c r="AX57" s="13" t="n">
+        <v>-23</v>
+      </c>
+      <c r="AY57" s="13" t="n">
+        <v>-73015</v>
+      </c>
+      <c r="AZ57" s="13" t="n">
+        <v>-208</v>
+      </c>
+      <c r="BA57" s="13" t="n">
+        <v>-53</v>
+      </c>
+      <c r="BB57" s="13" t="n">
         <v>-8</v>
-      </c>
-      <c r="AT57" s="13" t="n">
-        <v>-406764</v>
-      </c>
-      <c r="AU57" s="13" t="n">
-        <v>-12</v>
-      </c>
-      <c r="AV57" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW57" s="13" t="n">
-        <v>-203</v>
-      </c>
-      <c r="AX57" s="13" t="n">
-        <v>-197</v>
-      </c>
-      <c r="AY57" s="13" t="n">
-        <v>-23</v>
-      </c>
-      <c r="AZ57" s="13" t="n">
-        <v>-73015</v>
-      </c>
-      <c r="BA57" s="13" t="n">
-        <v>-208</v>
-      </c>
-      <c r="BB57" s="13" t="n">
-        <v>-53</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9821,110 +9821,110 @@
       <c r="S58" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="T58" s="22" t="s">
-        <v>58</v>
+      <c r="T58" s="22" t="n">
+        <v>-169037</v>
       </c>
       <c r="U58" s="22" t="n">
-        <v>-169037</v>
+        <v>-457016</v>
       </c>
       <c r="V58" s="22" t="n">
-        <v>-457016</v>
+        <v>-38</v>
       </c>
       <c r="W58" s="22" t="n">
-        <v>-38</v>
+        <v>-65583</v>
       </c>
       <c r="X58" s="22" t="n">
-        <v>-65583</v>
+        <v>-10444</v>
       </c>
       <c r="Y58" s="22" t="n">
-        <v>-10444</v>
+        <v>-50313</v>
       </c>
       <c r="Z58" s="22" t="n">
-        <v>-50313</v>
+        <v>-15790</v>
       </c>
       <c r="AA58" s="22" t="n">
-        <v>-15790</v>
+        <v>-10732</v>
       </c>
       <c r="AB58" s="22" t="n">
-        <v>-10732</v>
+        <v>-212045</v>
       </c>
       <c r="AC58" s="22" t="n">
-        <v>-212045</v>
+        <v>-2086</v>
       </c>
       <c r="AD58" s="22" t="n">
-        <v>-2086</v>
+        <v>-8100</v>
       </c>
       <c r="AE58" s="22" t="n">
-        <v>-8100</v>
+        <v>-34056</v>
       </c>
       <c r="AF58" s="22" t="n">
-        <v>-34056</v>
+        <v>-33851</v>
       </c>
       <c r="AG58" s="22" t="n">
-        <v>-33851</v>
+        <v>-20307</v>
       </c>
       <c r="AH58" s="22" t="n">
-        <v>-20307</v>
+        <v>-945</v>
       </c>
       <c r="AI58" s="22" t="n">
-        <v>-945</v>
+        <v>-18000</v>
       </c>
       <c r="AJ58" s="22" t="n">
-        <v>-18000</v>
+        <v>-212605</v>
       </c>
       <c r="AK58" s="22" t="n">
-        <v>-212605</v>
+        <v>-551</v>
       </c>
       <c r="AL58" s="22" t="n">
-        <v>-551</v>
+        <v>-1</v>
       </c>
       <c r="AM58" s="22" t="n">
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="AN58" s="22" t="n">
-        <v>-13</v>
+        <v>-96050</v>
       </c>
       <c r="AO58" s="22" t="n">
-        <v>-96050</v>
+        <v>-26</v>
       </c>
       <c r="AP58" s="22" t="n">
-        <v>-26</v>
+        <v>-200</v>
       </c>
       <c r="AQ58" s="22" t="n">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AR58" s="22" t="n">
-        <v>0</v>
+        <v>11194</v>
       </c>
       <c r="AS58" s="22" t="n">
-        <v>11194</v>
+        <v>-406764</v>
       </c>
       <c r="AT58" s="22" t="n">
-        <v>-406764</v>
+        <v>-12</v>
       </c>
       <c r="AU58" s="22" t="n">
-        <v>-12</v>
+        <v>-143</v>
       </c>
       <c r="AV58" s="22" t="n">
-        <v>-143</v>
+        <v>-17261</v>
       </c>
       <c r="AW58" s="22" t="n">
-        <v>-17261</v>
+        <v>-1231</v>
       </c>
       <c r="AX58" s="22" t="n">
-        <v>-1231</v>
+        <v>-8254</v>
       </c>
       <c r="AY58" s="22" t="n">
-        <v>-8254</v>
+        <v>-73015</v>
       </c>
       <c r="AZ58" s="22" t="n">
-        <v>-73015</v>
+        <v>-19207</v>
       </c>
       <c r="BA58" s="22" t="n">
-        <v>-19207</v>
+        <v>-76490</v>
       </c>
       <c r="BB58" s="22" t="n">
-        <v>-76490</v>
+        <v>-15768</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9976,112 +9976,112 @@
         <v>0</v>
       </c>
       <c r="S59" s="18" t="n">
-        <v>0</v>
+        <v>4112451</v>
       </c>
       <c r="T59" s="18" t="n">
-        <v>4112451</v>
+        <v>4375015</v>
       </c>
       <c r="U59" s="18" t="n">
-        <v>4375015</v>
+        <v>866016</v>
       </c>
       <c r="V59" s="18" t="n">
-        <v>866016</v>
+        <v>3009392</v>
       </c>
       <c r="W59" s="18" t="n">
-        <v>3009392</v>
+        <v>3828645</v>
       </c>
       <c r="X59" s="18" t="n">
-        <v>3828645</v>
+        <v>2668436</v>
       </c>
       <c r="Y59" s="18" t="n">
-        <v>2668436</v>
+        <v>4407859</v>
       </c>
       <c r="Z59" s="18" t="n">
-        <v>4407859</v>
+        <v>4355462</v>
       </c>
       <c r="AA59" s="18" t="n">
-        <v>4355462</v>
+        <v>4381100</v>
       </c>
       <c r="AB59" s="18" t="n">
-        <v>4381100</v>
+        <v>4678968</v>
       </c>
       <c r="AC59" s="18" t="n">
-        <v>4678968</v>
+        <v>1867220</v>
       </c>
       <c r="AD59" s="18" t="n">
-        <v>1867220</v>
+        <v>1843914</v>
       </c>
       <c r="AE59" s="18" t="n">
-        <v>1843914</v>
+        <v>3474584</v>
       </c>
       <c r="AF59" s="18" t="n">
-        <v>3474584</v>
+        <v>3822616</v>
       </c>
       <c r="AG59" s="18" t="n">
-        <v>3822616</v>
+        <v>3866528</v>
       </c>
       <c r="AH59" s="18" t="n">
-        <v>3866528</v>
+        <v>3228059</v>
       </c>
       <c r="AI59" s="18" t="n">
-        <v>3228059</v>
+        <v>4227480</v>
       </c>
       <c r="AJ59" s="18" t="n">
-        <v>4227480</v>
+        <v>3546020</v>
       </c>
       <c r="AK59" s="18" t="n">
-        <v>3546020</v>
+        <v>4924488</v>
       </c>
       <c r="AL59" s="18" t="n">
-        <v>4924488</v>
+        <v>4432624</v>
       </c>
       <c r="AM59" s="18" t="n">
-        <v>4432624</v>
+        <v>4403054</v>
       </c>
       <c r="AN59" s="18" t="n">
-        <v>4403054</v>
+        <v>4049304</v>
       </c>
       <c r="AO59" s="18" t="n">
-        <v>4049304</v>
+        <v>4168672</v>
       </c>
       <c r="AP59" s="18" t="n">
-        <v>4168672</v>
+        <v>1894095</v>
       </c>
       <c r="AQ59" s="18" t="n">
-        <v>1894095</v>
+        <v>3452682</v>
       </c>
       <c r="AR59" s="18" t="n">
-        <v>3452682</v>
+        <v>4224167</v>
       </c>
       <c r="AS59" s="18" t="n">
-        <v>4224167</v>
+        <v>3856483</v>
       </c>
       <c r="AT59" s="18" t="n">
-        <v>3856483</v>
+        <v>5082441</v>
       </c>
       <c r="AU59" s="18" t="n">
-        <v>5082441</v>
+        <v>4490577</v>
       </c>
       <c r="AV59" s="18" t="n">
-        <v>4490577</v>
+        <v>5087290</v>
       </c>
       <c r="AW59" s="18" t="n">
-        <v>5087290</v>
+        <v>4676432</v>
       </c>
       <c r="AX59" s="18" t="n">
-        <v>4676432</v>
+        <v>4500234</v>
       </c>
       <c r="AY59" s="18" t="n">
-        <v>4500234</v>
+        <v>4567997</v>
       </c>
       <c r="AZ59" s="18" t="n">
-        <v>4567997</v>
+        <v>3257383</v>
       </c>
       <c r="BA59" s="18" t="n">
-        <v>3257383</v>
+        <v>3269488</v>
       </c>
       <c r="BB59" s="18" t="n">
-        <v>3269488</v>
+        <v>1527965</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10568,65 +10568,65 @@
       <c r="R66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S66" s="13" t="s">
-        <v>58</v>
+      <c r="S66" s="13" t="n">
+        <v>12761</v>
       </c>
       <c r="T66" s="13" t="n">
-        <v>12761</v>
+        <v>6583</v>
       </c>
       <c r="U66" s="13" t="n">
-        <v>6583</v>
+        <v>7284</v>
       </c>
       <c r="V66" s="13" t="n">
-        <v>7284</v>
+        <v>21886</v>
       </c>
       <c r="W66" s="13" t="n">
-        <v>21886</v>
+        <v>6867</v>
       </c>
       <c r="X66" s="13" t="n">
-        <v>6867</v>
+        <v>3155</v>
       </c>
       <c r="Y66" s="13" t="n">
-        <v>3155</v>
+        <v>6059</v>
       </c>
       <c r="Z66" s="13" t="n">
-        <v>6059</v>
+        <v>11071</v>
       </c>
       <c r="AA66" s="13" t="n">
-        <v>11071</v>
+        <v>12244</v>
       </c>
       <c r="AB66" s="13" t="n">
-        <v>12244</v>
+        <v>15890</v>
       </c>
       <c r="AC66" s="13" t="n">
-        <v>15890</v>
+        <v>6265</v>
       </c>
       <c r="AD66" s="13" t="n">
-        <v>6265</v>
+        <v>8218</v>
       </c>
       <c r="AE66" s="13" t="n">
-        <v>8218</v>
+        <v>18732</v>
       </c>
       <c r="AF66" s="13" t="n">
-        <v>18732</v>
+        <v>3084</v>
       </c>
       <c r="AG66" s="13" t="n">
-        <v>3084</v>
+        <v>12330</v>
       </c>
       <c r="AH66" s="13" t="n">
-        <v>12330</v>
+        <v>10304</v>
       </c>
       <c r="AI66" s="13" t="n">
-        <v>10304</v>
+        <v>12811</v>
       </c>
       <c r="AJ66" s="13" t="n">
-        <v>12811</v>
+        <v>8226</v>
       </c>
       <c r="AK66" s="13" t="n">
-        <v>8226</v>
+        <v>3305</v>
       </c>
       <c r="AL66" s="13" t="n">
-        <v>3305</v>
+        <v>0</v>
       </c>
       <c r="AM66" s="13" t="n">
         <v>0</v>
@@ -10671,10 +10671,10 @@
         <v>0</v>
       </c>
       <c r="BA66" s="13" t="n">
-        <v>0</v>
+        <v>10440</v>
       </c>
       <c r="BB66" s="13" t="n">
-        <v>10440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10727,113 +10727,113 @@
       <c r="R67" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S67" s="16" t="s">
-        <v>58</v>
+      <c r="S67" s="16" t="n">
+        <v>33584</v>
       </c>
       <c r="T67" s="16" t="n">
-        <v>33584</v>
+        <v>27560</v>
       </c>
       <c r="U67" s="16" t="n">
-        <v>27560</v>
+        <v>3369</v>
       </c>
       <c r="V67" s="16" t="n">
-        <v>3369</v>
+        <v>12018</v>
       </c>
       <c r="W67" s="16" t="n">
-        <v>12018</v>
+        <v>27918</v>
       </c>
       <c r="X67" s="16" t="n">
-        <v>27918</v>
+        <v>40760</v>
       </c>
       <c r="Y67" s="16" t="n">
-        <v>40760</v>
+        <v>46997</v>
       </c>
       <c r="Z67" s="16" t="n">
-        <v>46997</v>
+        <v>30292</v>
       </c>
       <c r="AA67" s="16" t="n">
-        <v>30292</v>
+        <v>55018</v>
       </c>
       <c r="AB67" s="16" t="n">
-        <v>55018</v>
+        <v>37889</v>
       </c>
       <c r="AC67" s="16" t="n">
-        <v>37889</v>
+        <v>8165</v>
       </c>
       <c r="AD67" s="16" t="n">
-        <v>8165</v>
+        <v>1924</v>
       </c>
       <c r="AE67" s="16" t="n">
-        <v>1924</v>
+        <v>26628</v>
       </c>
       <c r="AF67" s="16" t="n">
-        <v>26628</v>
+        <v>37970</v>
       </c>
       <c r="AG67" s="16" t="n">
-        <v>37970</v>
+        <v>23534</v>
       </c>
       <c r="AH67" s="16" t="n">
-        <v>23534</v>
+        <v>13208</v>
       </c>
       <c r="AI67" s="16" t="n">
-        <v>13208</v>
+        <v>18296</v>
       </c>
       <c r="AJ67" s="16" t="n">
-        <v>18296</v>
+        <v>17307</v>
       </c>
       <c r="AK67" s="16" t="n">
-        <v>17307</v>
+        <v>35019</v>
       </c>
       <c r="AL67" s="16" t="n">
-        <v>35019</v>
+        <v>47921</v>
       </c>
       <c r="AM67" s="16" t="n">
-        <v>47921</v>
+        <v>78714</v>
       </c>
       <c r="AN67" s="16" t="n">
-        <v>78714</v>
+        <v>83914</v>
       </c>
       <c r="AO67" s="16" t="n">
-        <v>83914</v>
+        <v>50157</v>
       </c>
       <c r="AP67" s="16" t="n">
-        <v>50157</v>
+        <v>38154</v>
       </c>
       <c r="AQ67" s="16" t="n">
-        <v>38154</v>
+        <v>39602</v>
       </c>
       <c r="AR67" s="16" t="n">
-        <v>39602</v>
+        <v>73476</v>
       </c>
       <c r="AS67" s="16" t="n">
-        <v>73476</v>
+        <v>38018</v>
       </c>
       <c r="AT67" s="16" t="n">
-        <v>38018</v>
+        <v>65763</v>
       </c>
       <c r="AU67" s="16" t="n">
-        <v>65763</v>
+        <v>46393</v>
       </c>
       <c r="AV67" s="16" t="n">
-        <v>46393</v>
+        <v>82149</v>
       </c>
       <c r="AW67" s="16" t="n">
-        <v>82149</v>
+        <v>82507</v>
       </c>
       <c r="AX67" s="16" t="n">
-        <v>82507</v>
+        <v>90430</v>
       </c>
       <c r="AY67" s="16" t="n">
-        <v>90430</v>
+        <v>111592</v>
       </c>
       <c r="AZ67" s="16" t="n">
-        <v>111592</v>
+        <v>8968</v>
       </c>
       <c r="BA67" s="16" t="n">
-        <v>8968</v>
+        <v>3308</v>
       </c>
       <c r="BB67" s="16" t="n">
-        <v>3308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10886,113 +10886,113 @@
       <c r="R68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S68" s="13" t="s">
-        <v>58</v>
+      <c r="S68" s="13" t="n">
+        <v>141973</v>
       </c>
       <c r="T68" s="13" t="n">
-        <v>141973</v>
+        <v>51846</v>
       </c>
       <c r="U68" s="13" t="n">
-        <v>51846</v>
+        <v>127222</v>
       </c>
       <c r="V68" s="13" t="n">
-        <v>127222</v>
+        <v>91556</v>
       </c>
       <c r="W68" s="13" t="n">
-        <v>91556</v>
+        <v>101865</v>
       </c>
       <c r="X68" s="13" t="n">
-        <v>101865</v>
+        <v>134925</v>
       </c>
       <c r="Y68" s="13" t="n">
-        <v>134925</v>
+        <v>51148</v>
       </c>
       <c r="Z68" s="13" t="n">
-        <v>51148</v>
+        <v>96028</v>
       </c>
       <c r="AA68" s="13" t="n">
-        <v>96028</v>
+        <v>60235</v>
       </c>
       <c r="AB68" s="13" t="n">
-        <v>60235</v>
+        <v>87609</v>
       </c>
       <c r="AC68" s="13" t="n">
-        <v>87609</v>
+        <v>75176</v>
       </c>
       <c r="AD68" s="13" t="n">
-        <v>75176</v>
+        <v>86456</v>
       </c>
       <c r="AE68" s="13" t="n">
-        <v>86456</v>
+        <v>125130</v>
       </c>
       <c r="AF68" s="13" t="n">
-        <v>125130</v>
+        <v>136762</v>
       </c>
       <c r="AG68" s="13" t="n">
-        <v>136762</v>
+        <v>108003</v>
       </c>
       <c r="AH68" s="13" t="n">
-        <v>108003</v>
+        <v>250018</v>
       </c>
       <c r="AI68" s="13" t="n">
-        <v>250018</v>
+        <v>252619</v>
       </c>
       <c r="AJ68" s="13" t="n">
-        <v>252619</v>
+        <v>273283</v>
       </c>
       <c r="AK68" s="13" t="n">
-        <v>273283</v>
+        <v>184663</v>
       </c>
       <c r="AL68" s="13" t="n">
-        <v>184663</v>
+        <v>325885</v>
       </c>
       <c r="AM68" s="13" t="n">
-        <v>325885</v>
+        <v>315309</v>
       </c>
       <c r="AN68" s="13" t="n">
-        <v>315309</v>
+        <v>285504</v>
       </c>
       <c r="AO68" s="13" t="n">
-        <v>285504</v>
+        <v>291182</v>
       </c>
       <c r="AP68" s="13" t="n">
-        <v>291182</v>
+        <v>121577</v>
       </c>
       <c r="AQ68" s="13" t="n">
-        <v>121577</v>
+        <v>259466</v>
       </c>
       <c r="AR68" s="13" t="n">
-        <v>259466</v>
+        <v>221472</v>
       </c>
       <c r="AS68" s="13" t="n">
-        <v>221472</v>
+        <v>251793</v>
       </c>
       <c r="AT68" s="13" t="n">
-        <v>251793</v>
+        <v>431241</v>
       </c>
       <c r="AU68" s="13" t="n">
-        <v>431241</v>
+        <v>499494</v>
       </c>
       <c r="AV68" s="13" t="n">
-        <v>499494</v>
+        <v>249017</v>
       </c>
       <c r="AW68" s="13" t="n">
-        <v>249017</v>
+        <v>166718</v>
       </c>
       <c r="AX68" s="13" t="n">
-        <v>166718</v>
+        <v>277292</v>
       </c>
       <c r="AY68" s="13" t="n">
-        <v>277292</v>
+        <v>646039</v>
       </c>
       <c r="AZ68" s="13" t="n">
-        <v>646039</v>
+        <v>571142</v>
       </c>
       <c r="BA68" s="13" t="n">
-        <v>571142</v>
+        <v>226822</v>
       </c>
       <c r="BB68" s="13" t="n">
-        <v>226822</v>
+        <v>108204</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11045,113 +11045,113 @@
       <c r="R69" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S69" s="16" t="s">
-        <v>58</v>
+      <c r="S69" s="16" t="n">
+        <v>190391</v>
       </c>
       <c r="T69" s="16" t="n">
-        <v>190391</v>
+        <v>253648</v>
       </c>
       <c r="U69" s="16" t="n">
-        <v>253648</v>
+        <v>243272</v>
       </c>
       <c r="V69" s="16" t="n">
-        <v>243272</v>
+        <v>175097</v>
       </c>
       <c r="W69" s="16" t="n">
-        <v>175097</v>
+        <v>249502</v>
       </c>
       <c r="X69" s="16" t="n">
-        <v>249502</v>
+        <v>239626</v>
       </c>
       <c r="Y69" s="16" t="n">
-        <v>239626</v>
+        <v>303179</v>
       </c>
       <c r="Z69" s="16" t="n">
-        <v>303179</v>
+        <v>309558</v>
       </c>
       <c r="AA69" s="16" t="n">
-        <v>309558</v>
+        <v>307068</v>
       </c>
       <c r="AB69" s="16" t="n">
-        <v>307068</v>
+        <v>321960</v>
       </c>
       <c r="AC69" s="16" t="n">
-        <v>321960</v>
+        <v>190865</v>
       </c>
       <c r="AD69" s="16" t="n">
-        <v>190865</v>
+        <v>211814</v>
       </c>
       <c r="AE69" s="16" t="n">
-        <v>211814</v>
+        <v>256094</v>
       </c>
       <c r="AF69" s="16" t="n">
-        <v>256094</v>
+        <v>281781</v>
       </c>
       <c r="AG69" s="16" t="n">
-        <v>281781</v>
+        <v>404327</v>
       </c>
       <c r="AH69" s="16" t="n">
-        <v>404327</v>
+        <v>331528</v>
       </c>
       <c r="AI69" s="16" t="n">
-        <v>331528</v>
+        <v>387799</v>
       </c>
       <c r="AJ69" s="16" t="n">
-        <v>387799</v>
+        <v>448955</v>
       </c>
       <c r="AK69" s="16" t="n">
-        <v>448955</v>
+        <v>510303</v>
       </c>
       <c r="AL69" s="16" t="n">
-        <v>510303</v>
+        <v>351685</v>
       </c>
       <c r="AM69" s="16" t="n">
-        <v>351685</v>
+        <v>378281</v>
       </c>
       <c r="AN69" s="16" t="n">
-        <v>378281</v>
+        <v>380513</v>
       </c>
       <c r="AO69" s="16" t="n">
-        <v>380513</v>
+        <v>278526</v>
       </c>
       <c r="AP69" s="16" t="n">
-        <v>278526</v>
+        <v>272083</v>
       </c>
       <c r="AQ69" s="16" t="n">
-        <v>272083</v>
+        <v>418111</v>
       </c>
       <c r="AR69" s="16" t="n">
-        <v>418111</v>
+        <v>475822</v>
       </c>
       <c r="AS69" s="16" t="n">
-        <v>475822</v>
+        <v>722822</v>
       </c>
       <c r="AT69" s="16" t="n">
-        <v>722822</v>
+        <v>840834</v>
       </c>
       <c r="AU69" s="16" t="n">
-        <v>840834</v>
+        <v>619811</v>
       </c>
       <c r="AV69" s="16" t="n">
-        <v>619811</v>
+        <v>887571</v>
       </c>
       <c r="AW69" s="16" t="n">
-        <v>887571</v>
+        <v>828586</v>
       </c>
       <c r="AX69" s="16" t="n">
-        <v>828586</v>
+        <v>863745</v>
       </c>
       <c r="AY69" s="16" t="n">
-        <v>863745</v>
+        <v>885423</v>
       </c>
       <c r="AZ69" s="16" t="n">
-        <v>885423</v>
+        <v>714765</v>
       </c>
       <c r="BA69" s="16" t="n">
-        <v>714765</v>
+        <v>840914</v>
       </c>
       <c r="BB69" s="16" t="n">
-        <v>840914</v>
+        <v>351573</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11204,113 +11204,113 @@
       <c r="R70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S70" s="13" t="s">
-        <v>58</v>
+      <c r="S70" s="13" t="n">
+        <v>88703</v>
       </c>
       <c r="T70" s="13" t="n">
-        <v>88703</v>
+        <v>121104</v>
       </c>
       <c r="U70" s="13" t="n">
-        <v>121104</v>
+        <v>71860</v>
       </c>
       <c r="V70" s="13" t="n">
-        <v>71860</v>
+        <v>16504</v>
       </c>
       <c r="W70" s="13" t="n">
-        <v>16504</v>
+        <v>38703</v>
       </c>
       <c r="X70" s="13" t="n">
-        <v>38703</v>
+        <v>39013</v>
       </c>
       <c r="Y70" s="13" t="n">
-        <v>39013</v>
+        <v>70002</v>
       </c>
       <c r="Z70" s="13" t="n">
-        <v>70002</v>
+        <v>57686</v>
       </c>
       <c r="AA70" s="13" t="n">
-        <v>57686</v>
+        <v>43450</v>
       </c>
       <c r="AB70" s="13" t="n">
-        <v>43450</v>
+        <v>31531</v>
       </c>
       <c r="AC70" s="13" t="n">
-        <v>31531</v>
+        <v>10061</v>
       </c>
       <c r="AD70" s="13" t="n">
-        <v>10061</v>
+        <v>7264</v>
       </c>
       <c r="AE70" s="13" t="n">
-        <v>7264</v>
+        <v>39398</v>
       </c>
       <c r="AF70" s="13" t="n">
-        <v>39398</v>
+        <v>44890</v>
       </c>
       <c r="AG70" s="13" t="n">
-        <v>44890</v>
+        <v>61726</v>
       </c>
       <c r="AH70" s="13" t="n">
-        <v>61726</v>
+        <v>42945</v>
       </c>
       <c r="AI70" s="13" t="n">
-        <v>42945</v>
+        <v>68513</v>
       </c>
       <c r="AJ70" s="13" t="n">
-        <v>68513</v>
+        <v>52629</v>
       </c>
       <c r="AK70" s="13" t="n">
-        <v>52629</v>
+        <v>69750</v>
       </c>
       <c r="AL70" s="13" t="n">
-        <v>69750</v>
+        <v>78138</v>
       </c>
       <c r="AM70" s="13" t="n">
-        <v>78138</v>
+        <v>63318</v>
       </c>
       <c r="AN70" s="13" t="n">
-        <v>63318</v>
+        <v>83421</v>
       </c>
       <c r="AO70" s="13" t="n">
-        <v>83421</v>
+        <v>26849</v>
       </c>
       <c r="AP70" s="13" t="n">
-        <v>26849</v>
+        <v>27518</v>
       </c>
       <c r="AQ70" s="13" t="n">
-        <v>27518</v>
+        <v>42620</v>
       </c>
       <c r="AR70" s="13" t="n">
-        <v>42620</v>
+        <v>31350</v>
       </c>
       <c r="AS70" s="13" t="n">
-        <v>31350</v>
+        <v>60449</v>
       </c>
       <c r="AT70" s="13" t="n">
-        <v>60449</v>
+        <v>65166</v>
       </c>
       <c r="AU70" s="13" t="n">
-        <v>65166</v>
+        <v>86396</v>
       </c>
       <c r="AV70" s="13" t="n">
-        <v>86396</v>
+        <v>86620</v>
       </c>
       <c r="AW70" s="13" t="n">
-        <v>86620</v>
+        <v>100847</v>
       </c>
       <c r="AX70" s="13" t="n">
-        <v>100847</v>
+        <v>74810</v>
       </c>
       <c r="AY70" s="13" t="n">
-        <v>74810</v>
+        <v>125427</v>
       </c>
       <c r="AZ70" s="13" t="n">
-        <v>125427</v>
+        <v>56886</v>
       </c>
       <c r="BA70" s="13" t="n">
-        <v>56886</v>
+        <v>124992</v>
       </c>
       <c r="BB70" s="13" t="n">
-        <v>124992</v>
+        <v>64472</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11363,113 +11363,113 @@
       <c r="R71" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S71" s="16" t="s">
-        <v>58</v>
+      <c r="S71" s="16" t="n">
+        <v>44196</v>
       </c>
       <c r="T71" s="16" t="n">
-        <v>44196</v>
+        <v>67348</v>
       </c>
       <c r="U71" s="16" t="n">
-        <v>67348</v>
+        <v>371649</v>
       </c>
       <c r="V71" s="16" t="n">
-        <v>371649</v>
+        <v>357070</v>
       </c>
       <c r="W71" s="16" t="n">
-        <v>357070</v>
+        <v>463536</v>
       </c>
       <c r="X71" s="16" t="n">
-        <v>463536</v>
+        <v>352680</v>
       </c>
       <c r="Y71" s="16" t="n">
-        <v>352680</v>
+        <v>423361</v>
       </c>
       <c r="Z71" s="16" t="n">
-        <v>423361</v>
+        <v>352270</v>
       </c>
       <c r="AA71" s="16" t="n">
-        <v>352270</v>
+        <v>368088</v>
       </c>
       <c r="AB71" s="16" t="n">
-        <v>368088</v>
+        <v>315172</v>
       </c>
       <c r="AC71" s="16" t="n">
-        <v>315172</v>
+        <v>271136</v>
       </c>
       <c r="AD71" s="16" t="n">
-        <v>271136</v>
+        <v>312893</v>
       </c>
       <c r="AE71" s="16" t="n">
-        <v>312893</v>
+        <v>398750</v>
       </c>
       <c r="AF71" s="16" t="n">
-        <v>398750</v>
+        <v>468841</v>
       </c>
       <c r="AG71" s="16" t="n">
-        <v>468841</v>
+        <v>435975</v>
       </c>
       <c r="AH71" s="16" t="n">
-        <v>435975</v>
+        <v>475898</v>
       </c>
       <c r="AI71" s="16" t="n">
-        <v>475898</v>
+        <v>499298</v>
       </c>
       <c r="AJ71" s="16" t="n">
-        <v>499298</v>
+        <v>299531</v>
       </c>
       <c r="AK71" s="16" t="n">
-        <v>299531</v>
+        <v>377441</v>
       </c>
       <c r="AL71" s="16" t="n">
-        <v>377441</v>
+        <v>406445</v>
       </c>
       <c r="AM71" s="16" t="n">
-        <v>406445</v>
+        <v>343895</v>
       </c>
       <c r="AN71" s="16" t="n">
-        <v>343895</v>
+        <v>348726</v>
       </c>
       <c r="AO71" s="16" t="n">
-        <v>348726</v>
+        <v>421802</v>
       </c>
       <c r="AP71" s="16" t="n">
-        <v>421802</v>
+        <v>163350</v>
       </c>
       <c r="AQ71" s="16" t="n">
-        <v>163350</v>
+        <v>319691</v>
       </c>
       <c r="AR71" s="16" t="n">
-        <v>319691</v>
+        <v>268127</v>
       </c>
       <c r="AS71" s="16" t="n">
-        <v>268127</v>
+        <v>304730</v>
       </c>
       <c r="AT71" s="16" t="n">
-        <v>304730</v>
+        <v>484046</v>
       </c>
       <c r="AU71" s="16" t="n">
-        <v>484046</v>
+        <v>376738</v>
       </c>
       <c r="AV71" s="16" t="n">
-        <v>376738</v>
+        <v>251197</v>
       </c>
       <c r="AW71" s="16" t="n">
-        <v>251197</v>
+        <v>202955</v>
       </c>
       <c r="AX71" s="16" t="n">
-        <v>202955</v>
+        <v>144965</v>
       </c>
       <c r="AY71" s="16" t="n">
-        <v>144965</v>
+        <v>0</v>
       </c>
       <c r="AZ71" s="16" t="n">
-        <v>0</v>
+        <v>106832</v>
       </c>
       <c r="BA71" s="16" t="n">
-        <v>106832</v>
+        <v>284105</v>
       </c>
       <c r="BB71" s="16" t="n">
-        <v>284105</v>
+        <v>84323</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11521,112 +11521,112 @@
         <v>0</v>
       </c>
       <c r="S72" s="18" t="n">
-        <v>0</v>
+        <v>511608</v>
       </c>
       <c r="T72" s="18" t="n">
-        <v>511608</v>
+        <v>528089</v>
       </c>
       <c r="U72" s="18" t="n">
-        <v>528089</v>
+        <v>824656</v>
       </c>
       <c r="V72" s="18" t="n">
-        <v>824656</v>
+        <v>674131</v>
       </c>
       <c r="W72" s="18" t="n">
-        <v>674131</v>
+        <v>888391</v>
       </c>
       <c r="X72" s="18" t="n">
-        <v>888391</v>
+        <v>810159</v>
       </c>
       <c r="Y72" s="18" t="n">
-        <v>810159</v>
+        <v>900746</v>
       </c>
       <c r="Z72" s="18" t="n">
-        <v>900746</v>
+        <v>856905</v>
       </c>
       <c r="AA72" s="18" t="n">
-        <v>856905</v>
+        <v>846103</v>
       </c>
       <c r="AB72" s="18" t="n">
-        <v>846103</v>
+        <v>810051</v>
       </c>
       <c r="AC72" s="18" t="n">
-        <v>810051</v>
+        <v>561668</v>
       </c>
       <c r="AD72" s="18" t="n">
-        <v>561668</v>
+        <v>628569</v>
       </c>
       <c r="AE72" s="18" t="n">
-        <v>628569</v>
+        <v>864732</v>
       </c>
       <c r="AF72" s="18" t="n">
-        <v>864732</v>
+        <v>973328</v>
       </c>
       <c r="AG72" s="18" t="n">
-        <v>973328</v>
+        <v>1045895</v>
       </c>
       <c r="AH72" s="18" t="n">
-        <v>1045895</v>
+        <v>1123901</v>
       </c>
       <c r="AI72" s="18" t="n">
-        <v>1123901</v>
+        <v>1239336</v>
       </c>
       <c r="AJ72" s="18" t="n">
-        <v>1239336</v>
+        <v>1099931</v>
       </c>
       <c r="AK72" s="18" t="n">
-        <v>1099931</v>
+        <v>1180481</v>
       </c>
       <c r="AL72" s="18" t="n">
-        <v>1180481</v>
+        <v>1210074</v>
       </c>
       <c r="AM72" s="18" t="n">
-        <v>1210074</v>
+        <v>1179517</v>
       </c>
       <c r="AN72" s="18" t="n">
-        <v>1179517</v>
+        <v>1182078</v>
       </c>
       <c r="AO72" s="18" t="n">
-        <v>1182078</v>
+        <v>1068516</v>
       </c>
       <c r="AP72" s="18" t="n">
-        <v>1068516</v>
+        <v>622682</v>
       </c>
       <c r="AQ72" s="18" t="n">
-        <v>622682</v>
+        <v>1079490</v>
       </c>
       <c r="AR72" s="18" t="n">
-        <v>1079490</v>
+        <v>1070247</v>
       </c>
       <c r="AS72" s="18" t="n">
-        <v>1070247</v>
+        <v>1377812</v>
       </c>
       <c r="AT72" s="18" t="n">
-        <v>1377812</v>
+        <v>1887050</v>
       </c>
       <c r="AU72" s="18" t="n">
-        <v>1887050</v>
+        <v>1628832</v>
       </c>
       <c r="AV72" s="18" t="n">
-        <v>1628832</v>
+        <v>1556554</v>
       </c>
       <c r="AW72" s="18" t="n">
-        <v>1556554</v>
+        <v>1381613</v>
       </c>
       <c r="AX72" s="18" t="n">
-        <v>1381613</v>
+        <v>1451242</v>
       </c>
       <c r="AY72" s="18" t="n">
-        <v>1451242</v>
+        <v>1768481</v>
       </c>
       <c r="AZ72" s="18" t="n">
-        <v>1768481</v>
+        <v>1458593</v>
       </c>
       <c r="BA72" s="18" t="n">
-        <v>1458593</v>
+        <v>1490581</v>
       </c>
       <c r="BB72" s="18" t="n">
-        <v>1490581</v>
+        <v>608572</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11736,11 +11736,11 @@
       <c r="R74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T74" s="13" t="n">
-        <v>0</v>
+      <c r="S74" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="U74" s="13" t="s">
         <v>58</v>
@@ -11769,8 +11769,8 @@
       <c r="AC74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD74" s="13" t="s">
-        <v>58</v>
+      <c r="AD74" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE74" s="13" t="n">
         <v>0</v>
@@ -11895,11 +11895,11 @@
       <c r="R75" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S75" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T75" s="16" t="n">
-        <v>0</v>
+      <c r="S75" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="U75" s="16" t="s">
         <v>58</v>
@@ -11910,11 +11910,11 @@
       <c r="W75" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X75" s="16" t="s">
-        <v>58</v>
+      <c r="X75" s="16" t="n">
+        <v>14602</v>
       </c>
       <c r="Y75" s="16" t="n">
-        <v>14602</v>
+        <v>0</v>
       </c>
       <c r="Z75" s="16" t="n">
         <v>0</v>
@@ -11971,22 +11971,22 @@
         <v>0</v>
       </c>
       <c r="AR75" s="16" t="n">
-        <v>0</v>
+        <v>8325</v>
       </c>
       <c r="AS75" s="16" t="n">
-        <v>8325</v>
+        <v>0</v>
       </c>
       <c r="AT75" s="16" t="n">
-        <v>0</v>
+        <v>4282</v>
       </c>
       <c r="AU75" s="16" t="n">
-        <v>4282</v>
+        <v>39313</v>
       </c>
       <c r="AV75" s="16" t="n">
-        <v>39313</v>
+        <v>16354</v>
       </c>
       <c r="AW75" s="16" t="n">
-        <v>16354</v>
+        <v>0</v>
       </c>
       <c r="AX75" s="16" t="n">
         <v>0</v>
@@ -12054,11 +12054,11 @@
       <c r="R76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T76" s="13" t="n">
-        <v>0</v>
+      <c r="S76" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="U76" s="13" t="s">
         <v>58</v>
@@ -12072,8 +12072,8 @@
       <c r="X76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y76" s="13" t="s">
-        <v>58</v>
+      <c r="Y76" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Z76" s="13" t="n">
         <v>0</v>
@@ -12118,10 +12118,10 @@
         <v>0</v>
       </c>
       <c r="AN76" s="13" t="n">
-        <v>0</v>
+        <v>56214</v>
       </c>
       <c r="AO76" s="13" t="n">
-        <v>56214</v>
+        <v>0</v>
       </c>
       <c r="AP76" s="13" t="n">
         <v>0</v>
@@ -12157,10 +12157,10 @@
         <v>0</v>
       </c>
       <c r="BA76" s="13" t="n">
-        <v>0</v>
+        <v>8970</v>
       </c>
       <c r="BB76" s="13" t="n">
-        <v>8970</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12213,26 +12213,26 @@
       <c r="R77" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S77" s="16" t="s">
-        <v>58</v>
+      <c r="S77" s="16" t="n">
+        <v>17371</v>
       </c>
       <c r="T77" s="16" t="n">
-        <v>17371</v>
+        <v>0</v>
       </c>
       <c r="U77" s="16" t="n">
-        <v>0</v>
+        <v>1805</v>
       </c>
       <c r="V77" s="16" t="n">
-        <v>1805</v>
+        <v>1057</v>
       </c>
       <c r="W77" s="16" t="n">
-        <v>1057</v>
+        <v>0</v>
       </c>
       <c r="X77" s="16" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="Y77" s="16" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="Z77" s="16" t="n">
         <v>0</v>
@@ -12244,10 +12244,10 @@
         <v>0</v>
       </c>
       <c r="AC77" s="16" t="n">
-        <v>0</v>
+        <v>22427</v>
       </c>
       <c r="AD77" s="16" t="n">
-        <v>22427</v>
+        <v>0</v>
       </c>
       <c r="AE77" s="16" t="n">
         <v>0</v>
@@ -12307,19 +12307,19 @@
         <v>0</v>
       </c>
       <c r="AX77" s="16" t="n">
-        <v>0</v>
+        <v>4251</v>
       </c>
       <c r="AY77" s="16" t="n">
-        <v>4251</v>
+        <v>0</v>
       </c>
       <c r="AZ77" s="16" t="n">
         <v>0</v>
       </c>
       <c r="BA77" s="16" t="n">
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="BB77" s="16" t="n">
-        <v>936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12372,20 +12372,20 @@
       <c r="R78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T78" s="13" t="n">
-        <v>0</v>
+      <c r="S78" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="U78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V78" s="13" t="s">
-        <v>58</v>
+      <c r="V78" s="13" t="n">
+        <v>8183</v>
       </c>
       <c r="W78" s="13" t="n">
-        <v>8183</v>
+        <v>0</v>
       </c>
       <c r="X78" s="13" t="n">
         <v>0</v>
@@ -12531,11 +12531,11 @@
       <c r="R79" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S79" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="T79" s="16" t="n">
-        <v>0</v>
+      <c r="S79" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="U79" s="16" t="s">
         <v>58</v>
@@ -12558,8 +12558,8 @@
       <c r="AA79" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AB79" s="16" t="s">
-        <v>58</v>
+      <c r="AB79" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AC79" s="16" t="n">
         <v>0</v>
@@ -12628,10 +12628,10 @@
         <v>0</v>
       </c>
       <c r="AY79" s="16" t="n">
-        <v>0</v>
+        <v>236490</v>
       </c>
       <c r="AZ79" s="16" t="n">
-        <v>236490</v>
+        <v>0</v>
       </c>
       <c r="BA79" s="16" t="n">
         <v>0</v>
@@ -12689,25 +12689,25 @@
         <v>0</v>
       </c>
       <c r="S80" s="18" t="n">
-        <v>0</v>
+        <v>17371</v>
       </c>
       <c r="T80" s="18" t="n">
-        <v>17371</v>
+        <v>0</v>
       </c>
       <c r="U80" s="18" t="n">
-        <v>0</v>
+        <v>1805</v>
       </c>
       <c r="V80" s="18" t="n">
-        <v>1805</v>
+        <v>9240</v>
       </c>
       <c r="W80" s="18" t="n">
-        <v>9240</v>
+        <v>0</v>
       </c>
       <c r="X80" s="18" t="n">
-        <v>0</v>
+        <v>17602</v>
       </c>
       <c r="Y80" s="18" t="n">
-        <v>17602</v>
+        <v>0</v>
       </c>
       <c r="Z80" s="18" t="n">
         <v>0</v>
@@ -12719,10 +12719,10 @@
         <v>0</v>
       </c>
       <c r="AC80" s="18" t="n">
-        <v>0</v>
+        <v>22427</v>
       </c>
       <c r="AD80" s="18" t="n">
-        <v>22427</v>
+        <v>0</v>
       </c>
       <c r="AE80" s="18" t="n">
         <v>0</v>
@@ -12752,10 +12752,10 @@
         <v>0</v>
       </c>
       <c r="AN80" s="18" t="n">
-        <v>0</v>
+        <v>56214</v>
       </c>
       <c r="AO80" s="18" t="n">
-        <v>56214</v>
+        <v>0</v>
       </c>
       <c r="AP80" s="18" t="n">
         <v>0</v>
@@ -12764,37 +12764,37 @@
         <v>0</v>
       </c>
       <c r="AR80" s="18" t="n">
-        <v>0</v>
+        <v>8325</v>
       </c>
       <c r="AS80" s="18" t="n">
-        <v>8325</v>
+        <v>0</v>
       </c>
       <c r="AT80" s="18" t="n">
-        <v>0</v>
+        <v>4282</v>
       </c>
       <c r="AU80" s="18" t="n">
-        <v>4282</v>
+        <v>39313</v>
       </c>
       <c r="AV80" s="18" t="n">
-        <v>39313</v>
+        <v>16354</v>
       </c>
       <c r="AW80" s="18" t="n">
-        <v>16354</v>
+        <v>0</v>
       </c>
       <c r="AX80" s="18" t="n">
-        <v>0</v>
+        <v>4251</v>
       </c>
       <c r="AY80" s="18" t="n">
-        <v>4251</v>
+        <v>236490</v>
       </c>
       <c r="AZ80" s="18" t="n">
-        <v>236490</v>
+        <v>0</v>
       </c>
       <c r="BA80" s="18" t="n">
-        <v>0</v>
+        <v>9906</v>
       </c>
       <c r="BB80" s="18" t="n">
-        <v>9906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12907,8 +12907,8 @@
       <c r="S82" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="T82" s="18" t="s">
-        <v>58</v>
+      <c r="T82" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="U82" s="23" t="n">
         <v>0</v>
@@ -13126,8 +13126,8 @@
       <c r="T84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U84" s="13" t="s">
-        <v>58</v>
+      <c r="U84" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V84" s="13" t="n">
         <v>0</v>
@@ -13139,34 +13139,34 @@
         <v>0</v>
       </c>
       <c r="Y84" s="13" t="n">
-        <v>0</v>
+        <v>-440</v>
       </c>
       <c r="Z84" s="13" t="n">
-        <v>-440</v>
+        <v>0</v>
       </c>
       <c r="AA84" s="13" t="n">
-        <v>0</v>
+        <v>-62</v>
       </c>
       <c r="AB84" s="13" t="n">
-        <v>-62</v>
+        <v>-2604</v>
       </c>
       <c r="AC84" s="13" t="n">
-        <v>-2604</v>
+        <v>-7</v>
       </c>
       <c r="AD84" s="13" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="AE84" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AF84" s="13" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="AG84" s="13" t="n">
-        <v>-16</v>
+        <v>-550</v>
       </c>
       <c r="AH84" s="13" t="n">
-        <v>-550</v>
+        <v>0</v>
       </c>
       <c r="AI84" s="13" t="n">
         <v>0</v>
@@ -13189,14 +13189,14 @@
       <c r="AO84" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP84" s="13" t="n">
-        <v>0</v>
+      <c r="AP84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR84" s="13" t="s">
-        <v>58</v>
+      <c r="AR84" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS84" s="13" t="n">
         <v>0</v>
@@ -13205,28 +13205,28 @@
         <v>0</v>
       </c>
       <c r="AU84" s="13" t="n">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="AV84" s="13" t="n">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="AW84" s="13" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AX84" s="13" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AY84" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AZ84" s="13" t="n">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="BA84" s="13" t="n">
-        <v>-300</v>
-      </c>
-      <c r="BB84" s="13" t="n">
         <v>-3311</v>
+      </c>
+      <c r="BB84" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13282,71 +13282,71 @@
       <c r="S85" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T85" s="16" t="s">
-        <v>58</v>
+      <c r="T85" s="16" t="n">
+        <v>-5796</v>
       </c>
       <c r="U85" s="16" t="n">
-        <v>-5796</v>
+        <v>-66048</v>
       </c>
       <c r="V85" s="16" t="n">
-        <v>-66048</v>
+        <v>-13</v>
       </c>
       <c r="W85" s="16" t="n">
-        <v>-13</v>
+        <v>-4881</v>
       </c>
       <c r="X85" s="16" t="n">
-        <v>-4881</v>
+        <v>-4604</v>
       </c>
       <c r="Y85" s="16" t="n">
-        <v>-4604</v>
+        <v>-4336</v>
       </c>
       <c r="Z85" s="16" t="n">
-        <v>-4336</v>
+        <v>-10494</v>
       </c>
       <c r="AA85" s="16" t="n">
-        <v>-10494</v>
+        <v>0</v>
       </c>
       <c r="AB85" s="16" t="n">
-        <v>0</v>
+        <v>-5795</v>
       </c>
       <c r="AC85" s="16" t="n">
-        <v>-5795</v>
+        <v>-5</v>
       </c>
       <c r="AD85" s="16" t="n">
+        <v>-1938</v>
+      </c>
+      <c r="AE85" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="16" t="n">
         <v>-5</v>
       </c>
-      <c r="AE85" s="16" t="n">
-        <v>-1938</v>
-      </c>
-      <c r="AF85" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AG85" s="16" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="AH85" s="16" t="n">
-        <v>-15</v>
+        <v>-646</v>
       </c>
       <c r="AI85" s="16" t="n">
-        <v>-646</v>
+        <v>0</v>
       </c>
       <c r="AJ85" s="16" t="n">
-        <v>0</v>
+        <v>-1266</v>
       </c>
       <c r="AK85" s="16" t="n">
-        <v>-1266</v>
+        <v>-1</v>
       </c>
       <c r="AL85" s="16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM85" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AN85" s="16" t="n">
-        <v>0</v>
+        <v>-3618</v>
       </c>
       <c r="AO85" s="16" t="n">
-        <v>-3618</v>
+        <v>0</v>
       </c>
       <c r="AP85" s="16" t="n">
         <v>0</v>
@@ -13364,16 +13364,16 @@
         <v>0</v>
       </c>
       <c r="AU85" s="16" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AV85" s="16" t="n">
-        <v>-11</v>
+        <v>-5542</v>
       </c>
       <c r="AW85" s="16" t="n">
-        <v>-5542</v>
+        <v>-841</v>
       </c>
       <c r="AX85" s="16" t="n">
-        <v>-841</v>
+        <v>0</v>
       </c>
       <c r="AY85" s="16" t="n">
         <v>0</v>
@@ -13382,10 +13382,10 @@
         <v>0</v>
       </c>
       <c r="BA85" s="16" t="n">
-        <v>0</v>
+        <v>-42012</v>
       </c>
       <c r="BB85" s="16" t="n">
-        <v>-42012</v>
+        <v>-1047</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13441,38 +13441,38 @@
       <c r="S86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T86" s="13" t="s">
-        <v>58</v>
+      <c r="T86" s="13" t="n">
+        <v>-913</v>
       </c>
       <c r="U86" s="13" t="n">
-        <v>-913</v>
+        <v>-3804</v>
       </c>
       <c r="V86" s="13" t="n">
-        <v>-3804</v>
+        <v>-4</v>
       </c>
       <c r="W86" s="13" t="n">
-        <v>-4</v>
+        <v>-10111</v>
       </c>
       <c r="X86" s="13" t="n">
-        <v>-10111</v>
+        <v>-1315</v>
       </c>
       <c r="Y86" s="13" t="n">
-        <v>-1315</v>
+        <v>-2368</v>
       </c>
       <c r="Z86" s="13" t="n">
-        <v>-2368</v>
+        <v>-2308</v>
       </c>
       <c r="AA86" s="13" t="n">
-        <v>-2308</v>
+        <v>-238</v>
       </c>
       <c r="AB86" s="13" t="n">
-        <v>-238</v>
+        <v>-14980</v>
       </c>
       <c r="AC86" s="13" t="n">
-        <v>-14980</v>
+        <v>-1935</v>
       </c>
       <c r="AD86" s="13" t="n">
-        <v>-1935</v>
+        <v>0</v>
       </c>
       <c r="AE86" s="13" t="n">
         <v>0</v>
@@ -13481,70 +13481,70 @@
         <v>0</v>
       </c>
       <c r="AG86" s="13" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="AH86" s="13" t="n">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="AI86" s="13" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AJ86" s="13" t="n">
-        <v>0</v>
+        <v>-198</v>
       </c>
       <c r="AK86" s="13" t="n">
-        <v>-198</v>
+        <v>-1</v>
       </c>
       <c r="AL86" s="13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM86" s="13" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="AN86" s="13" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AO86" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP86" s="13" t="n">
-        <v>0</v>
+      <c r="AP86" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR86" s="13" t="s">
-        <v>58</v>
+      <c r="AR86" s="13" t="n">
+        <v>-2214</v>
       </c>
       <c r="AS86" s="13" t="n">
-        <v>-2214</v>
+        <v>0</v>
       </c>
       <c r="AT86" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AU86" s="13" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AV86" s="13" t="n">
-        <v>-8</v>
+        <v>-4300</v>
       </c>
       <c r="AW86" s="13" t="n">
-        <v>-4300</v>
+        <v>-620</v>
       </c>
       <c r="AX86" s="13" t="n">
-        <v>-620</v>
+        <v>-4774</v>
       </c>
       <c r="AY86" s="13" t="n">
-        <v>-4774</v>
+        <v>0</v>
       </c>
       <c r="AZ86" s="13" t="n">
-        <v>0</v>
+        <v>-9378</v>
       </c>
       <c r="BA86" s="13" t="n">
-        <v>-9378</v>
+        <v>-2349</v>
       </c>
       <c r="BB86" s="13" t="n">
-        <v>-2349</v>
+        <v>-2831</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13600,92 +13600,92 @@
       <c r="S87" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="T87" s="16" t="s">
-        <v>58</v>
+      <c r="T87" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="U87" s="16" t="n">
-        <v>0</v>
+        <v>-18118</v>
       </c>
       <c r="V87" s="16" t="n">
-        <v>-18118</v>
+        <v>0</v>
       </c>
       <c r="W87" s="16" t="n">
-        <v>0</v>
+        <v>-5161</v>
       </c>
       <c r="X87" s="16" t="n">
-        <v>-5161</v>
+        <v>0</v>
       </c>
       <c r="Y87" s="16" t="n">
-        <v>0</v>
+        <v>-1013</v>
       </c>
       <c r="Z87" s="16" t="n">
-        <v>-1013</v>
+        <v>-1797</v>
       </c>
       <c r="AA87" s="16" t="n">
-        <v>-1797</v>
+        <v>-4</v>
       </c>
       <c r="AB87" s="16" t="n">
-        <v>-4</v>
+        <v>-6620</v>
       </c>
       <c r="AC87" s="16" t="n">
-        <v>-6620</v>
+        <v>-2</v>
       </c>
       <c r="AD87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="16" t="n">
+        <v>-3732</v>
+      </c>
+      <c r="AF87" s="16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG87" s="16" t="n">
+        <v>-733</v>
+      </c>
+      <c r="AH87" s="16" t="n">
+        <v>-16</v>
+      </c>
+      <c r="AI87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK87" s="16" t="n">
+        <v>-68</v>
+      </c>
+      <c r="AL87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP87" s="16" t="n">
+        <v>-22</v>
+      </c>
+      <c r="AQ87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT87" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU87" s="16" t="n">
         <v>-2</v>
       </c>
-      <c r="AE87" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF87" s="16" t="n">
-        <v>-3732</v>
-      </c>
-      <c r="AG87" s="16" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AH87" s="16" t="n">
-        <v>-733</v>
-      </c>
-      <c r="AI87" s="16" t="n">
-        <v>-16</v>
-      </c>
-      <c r="AJ87" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK87" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL87" s="16" t="n">
-        <v>-68</v>
-      </c>
-      <c r="AM87" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN87" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO87" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP87" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ87" s="16" t="n">
-        <v>-22</v>
-      </c>
-      <c r="AR87" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS87" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT87" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU87" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AV87" s="16" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AW87" s="16" t="n">
         <v>0</v>
@@ -13759,8 +13759,8 @@
       <c r="S88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T88" s="13" t="s">
-        <v>58</v>
+      <c r="T88" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="U88" s="13" t="n">
         <v>0</v>
@@ -13787,52 +13787,52 @@
         <v>0</v>
       </c>
       <c r="AC88" s="13" t="n">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="AD88" s="13" t="n">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AE88" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AF88" s="13" t="n">
-        <v>0</v>
+        <v>-104845</v>
       </c>
       <c r="AG88" s="13" t="n">
-        <v>-104845</v>
+        <v>-16</v>
       </c>
       <c r="AH88" s="13" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="AI88" s="13" t="n">
-        <v>0</v>
+        <v>-6051</v>
       </c>
       <c r="AJ88" s="13" t="n">
-        <v>-6051</v>
+        <v>0</v>
       </c>
       <c r="AK88" s="13" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
       <c r="AL88" s="13" t="n">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="AM88" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN88" s="13" t="n">
+        <v>-56226</v>
+      </c>
+      <c r="AO88" s="13" t="n">
         <v>-7</v>
       </c>
-      <c r="AN88" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO88" s="13" t="n">
-        <v>-56226</v>
-      </c>
       <c r="AP88" s="13" t="n">
-        <v>-7</v>
+        <v>-25</v>
       </c>
       <c r="AQ88" s="13" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AR88" s="13" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AS88" s="13" t="n">
         <v>-8</v>
@@ -13841,28 +13841,28 @@
         <v>-8</v>
       </c>
       <c r="AU88" s="13" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AV88" s="13" t="n">
-        <v>0</v>
+        <v>-113</v>
       </c>
       <c r="AW88" s="13" t="n">
-        <v>-113</v>
+        <v>-112</v>
       </c>
       <c r="AX88" s="13" t="n">
-        <v>-112</v>
+        <v>-13</v>
       </c>
       <c r="AY88" s="13" t="n">
-        <v>-13</v>
+        <v>-54739</v>
       </c>
       <c r="AZ88" s="13" t="n">
-        <v>-54739</v>
+        <v>-114</v>
       </c>
       <c r="BA88" s="13" t="n">
-        <v>-114</v>
+        <v>-29</v>
       </c>
       <c r="BB88" s="13" t="n">
-        <v>-29</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13918,110 +13918,110 @@
       <c r="S89" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="T89" s="22" t="s">
-        <v>58</v>
+      <c r="T89" s="24" t="n">
+        <v>-6709</v>
       </c>
       <c r="U89" s="24" t="n">
-        <v>-6709</v>
+        <v>-87970</v>
       </c>
       <c r="V89" s="24" t="n">
-        <v>-87970</v>
+        <v>-17</v>
       </c>
       <c r="W89" s="24" t="n">
-        <v>-17</v>
+        <v>-20153</v>
       </c>
       <c r="X89" s="24" t="n">
-        <v>-20153</v>
+        <v>-5919</v>
       </c>
       <c r="Y89" s="24" t="n">
-        <v>-5919</v>
+        <v>-8157</v>
       </c>
       <c r="Z89" s="24" t="n">
-        <v>-8157</v>
+        <v>-14599</v>
       </c>
       <c r="AA89" s="24" t="n">
-        <v>-14599</v>
+        <v>-304</v>
       </c>
       <c r="AB89" s="24" t="n">
-        <v>-304</v>
+        <v>-29999</v>
       </c>
       <c r="AC89" s="24" t="n">
-        <v>-29999</v>
+        <v>-1981</v>
       </c>
       <c r="AD89" s="24" t="n">
-        <v>-1981</v>
+        <v>-1938</v>
       </c>
       <c r="AE89" s="24" t="n">
-        <v>-1938</v>
+        <v>-3732</v>
       </c>
       <c r="AF89" s="24" t="n">
-        <v>-3732</v>
+        <v>-104867</v>
       </c>
       <c r="AG89" s="24" t="n">
-        <v>-104867</v>
+        <v>-1321</v>
       </c>
       <c r="AH89" s="24" t="n">
-        <v>-1321</v>
+        <v>-674</v>
       </c>
       <c r="AI89" s="24" t="n">
-        <v>-674</v>
+        <v>-6051</v>
       </c>
       <c r="AJ89" s="24" t="n">
-        <v>-6051</v>
+        <v>-1464</v>
       </c>
       <c r="AK89" s="24" t="n">
-        <v>-1464</v>
+        <v>-84</v>
       </c>
       <c r="AL89" s="24" t="n">
-        <v>-84</v>
+        <v>-7</v>
       </c>
       <c r="AM89" s="24" t="n">
+        <v>-9</v>
+      </c>
+      <c r="AN89" s="24" t="n">
+        <v>-59844</v>
+      </c>
+      <c r="AO89" s="24" t="n">
         <v>-7</v>
       </c>
-      <c r="AN89" s="24" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AO89" s="24" t="n">
-        <v>-59844</v>
-      </c>
       <c r="AP89" s="24" t="n">
-        <v>-7</v>
+        <v>-47</v>
       </c>
       <c r="AQ89" s="24" t="n">
-        <v>-47</v>
+        <v>0</v>
       </c>
       <c r="AR89" s="24" t="n">
-        <v>0</v>
+        <v>-2222</v>
       </c>
       <c r="AS89" s="24" t="n">
-        <v>-2222</v>
+        <v>-8</v>
       </c>
       <c r="AT89" s="24" t="n">
         <v>-8</v>
       </c>
       <c r="AU89" s="24" t="n">
-        <v>-8</v>
+        <v>-39</v>
       </c>
       <c r="AV89" s="24" t="n">
-        <v>-39</v>
+        <v>-9955</v>
       </c>
       <c r="AW89" s="24" t="n">
-        <v>-9955</v>
+        <v>-1576</v>
       </c>
       <c r="AX89" s="24" t="n">
-        <v>-1576</v>
+        <v>-4787</v>
       </c>
       <c r="AY89" s="24" t="n">
-        <v>-4787</v>
+        <v>-54739</v>
       </c>
       <c r="AZ89" s="24" t="n">
-        <v>-54739</v>
+        <v>-9792</v>
       </c>
       <c r="BA89" s="24" t="n">
-        <v>-9792</v>
+        <v>-47701</v>
       </c>
       <c r="BB89" s="24" t="n">
-        <v>-47701</v>
+        <v>-3906</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14134,110 +14134,110 @@
       <c r="S91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T91" s="13" t="s">
-        <v>58</v>
+      <c r="T91" s="13" t="n">
+        <v>-86978</v>
       </c>
       <c r="U91" s="13" t="n">
-        <v>-86978</v>
+        <v>-50954</v>
       </c>
       <c r="V91" s="13" t="n">
-        <v>-50954</v>
+        <v>-67885</v>
       </c>
       <c r="W91" s="13" t="n">
-        <v>-67885</v>
+        <v>-156310</v>
       </c>
       <c r="X91" s="13" t="n">
-        <v>-156310</v>
+        <v>-104949</v>
       </c>
       <c r="Y91" s="13" t="n">
-        <v>-104949</v>
+        <v>-192370</v>
       </c>
       <c r="Z91" s="13" t="n">
-        <v>-192370</v>
+        <v>-92205</v>
       </c>
       <c r="AA91" s="13" t="n">
-        <v>-92205</v>
+        <v>-140749</v>
       </c>
       <c r="AB91" s="13" t="n">
-        <v>-140749</v>
+        <v>-83028</v>
       </c>
       <c r="AC91" s="13" t="n">
-        <v>-83028</v>
+        <v>-72288</v>
       </c>
       <c r="AD91" s="13" t="n">
-        <v>-72288</v>
+        <v>-20022</v>
       </c>
       <c r="AE91" s="13" t="n">
-        <v>-20022</v>
+        <v>-114110</v>
       </c>
       <c r="AF91" s="13" t="n">
-        <v>-114110</v>
+        <v>-98696</v>
       </c>
       <c r="AG91" s="13" t="n">
-        <v>-98696</v>
+        <v>-123899</v>
       </c>
       <c r="AH91" s="13" t="n">
-        <v>-123899</v>
+        <v>-170497</v>
       </c>
       <c r="AI91" s="13" t="n">
-        <v>-170497</v>
+        <v>-183424</v>
       </c>
       <c r="AJ91" s="13" t="n">
-        <v>-183424</v>
+        <v>-77286</v>
       </c>
       <c r="AK91" s="13" t="n">
-        <v>-77286</v>
+        <v>-145332</v>
       </c>
       <c r="AL91" s="13" t="n">
-        <v>-145332</v>
+        <v>-174387</v>
       </c>
       <c r="AM91" s="13" t="n">
-        <v>-174387</v>
+        <v>-142588</v>
       </c>
       <c r="AN91" s="13" t="n">
-        <v>-142588</v>
+        <v>-135103</v>
       </c>
       <c r="AO91" s="13" t="n">
-        <v>-135103</v>
+        <v>-473447</v>
       </c>
       <c r="AP91" s="13" t="n">
-        <v>-473447</v>
+        <v>-38751</v>
       </c>
       <c r="AQ91" s="13" t="n">
-        <v>-38751</v>
+        <v>-131884</v>
       </c>
       <c r="AR91" s="13" t="n">
-        <v>-131884</v>
+        <v>-288395</v>
       </c>
       <c r="AS91" s="13" t="n">
-        <v>-288395</v>
+        <v>-181029</v>
       </c>
       <c r="AT91" s="13" t="n">
-        <v>-181029</v>
+        <v>-320226</v>
       </c>
       <c r="AU91" s="13" t="n">
-        <v>-320226</v>
+        <v>-303600</v>
       </c>
       <c r="AV91" s="13" t="n">
-        <v>-303600</v>
+        <v>-139930</v>
       </c>
       <c r="AW91" s="13" t="n">
-        <v>-139930</v>
+        <v>-79992</v>
       </c>
       <c r="AX91" s="13" t="n">
-        <v>-79992</v>
+        <v>-153348</v>
       </c>
       <c r="AY91" s="13" t="n">
-        <v>-153348</v>
+        <v>-198678</v>
       </c>
       <c r="AZ91" s="13" t="n">
-        <v>-198678</v>
+        <v>-239996</v>
       </c>
       <c r="BA91" s="13" t="n">
-        <v>-239996</v>
+        <v>-283851</v>
       </c>
       <c r="BB91" s="13" t="n">
-        <v>-283851</v>
+        <v>-2396</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14289,112 +14289,112 @@
         <v>0</v>
       </c>
       <c r="S92" s="24" t="n">
-        <v>0</v>
+        <v>528979</v>
       </c>
       <c r="T92" s="24" t="n">
-        <v>528979</v>
+        <v>434402</v>
       </c>
       <c r="U92" s="24" t="n">
-        <v>434402</v>
+        <v>687537</v>
       </c>
       <c r="V92" s="24" t="n">
-        <v>687537</v>
+        <v>615469</v>
       </c>
       <c r="W92" s="24" t="n">
-        <v>615469</v>
+        <v>711928</v>
       </c>
       <c r="X92" s="24" t="n">
-        <v>711928</v>
+        <v>716893</v>
       </c>
       <c r="Y92" s="24" t="n">
-        <v>716893</v>
+        <v>700219</v>
       </c>
       <c r="Z92" s="24" t="n">
-        <v>700219</v>
+        <v>750101</v>
       </c>
       <c r="AA92" s="24" t="n">
-        <v>750101</v>
+        <v>705050</v>
       </c>
       <c r="AB92" s="24" t="n">
-        <v>705050</v>
+        <v>697024</v>
       </c>
       <c r="AC92" s="24" t="n">
-        <v>697024</v>
+        <v>509826</v>
       </c>
       <c r="AD92" s="24" t="n">
-        <v>509826</v>
+        <v>606609</v>
       </c>
       <c r="AE92" s="24" t="n">
-        <v>606609</v>
+        <v>746890</v>
       </c>
       <c r="AF92" s="24" t="n">
-        <v>746890</v>
+        <v>769765</v>
       </c>
       <c r="AG92" s="24" t="n">
-        <v>769765</v>
+        <v>920675</v>
       </c>
       <c r="AH92" s="24" t="n">
-        <v>920675</v>
+        <v>952730</v>
       </c>
       <c r="AI92" s="24" t="n">
-        <v>952730</v>
+        <v>1049861</v>
       </c>
       <c r="AJ92" s="24" t="n">
-        <v>1049861</v>
+        <v>1021181</v>
       </c>
       <c r="AK92" s="24" t="n">
-        <v>1021181</v>
+        <v>1035065</v>
       </c>
       <c r="AL92" s="24" t="n">
-        <v>1035065</v>
+        <v>1035680</v>
       </c>
       <c r="AM92" s="24" t="n">
-        <v>1035680</v>
+        <v>1036920</v>
       </c>
       <c r="AN92" s="24" t="n">
-        <v>1036920</v>
+        <v>1043345</v>
       </c>
       <c r="AO92" s="24" t="n">
-        <v>1043345</v>
+        <v>595062</v>
       </c>
       <c r="AP92" s="24" t="n">
-        <v>595062</v>
+        <v>583884</v>
       </c>
       <c r="AQ92" s="24" t="n">
-        <v>583884</v>
+        <v>947606</v>
       </c>
       <c r="AR92" s="24" t="n">
-        <v>947606</v>
+        <v>787955</v>
       </c>
       <c r="AS92" s="24" t="n">
-        <v>787955</v>
+        <v>1196775</v>
       </c>
       <c r="AT92" s="24" t="n">
-        <v>1196775</v>
+        <v>1571098</v>
       </c>
       <c r="AU92" s="24" t="n">
-        <v>1571098</v>
+        <v>1364506</v>
       </c>
       <c r="AV92" s="24" t="n">
-        <v>1364506</v>
+        <v>1423023</v>
       </c>
       <c r="AW92" s="24" t="n">
-        <v>1423023</v>
+        <v>1300045</v>
       </c>
       <c r="AX92" s="24" t="n">
-        <v>1300045</v>
+        <v>1297358</v>
       </c>
       <c r="AY92" s="24" t="n">
-        <v>1297358</v>
+        <v>1751554</v>
       </c>
       <c r="AZ92" s="24" t="n">
-        <v>1751554</v>
+        <v>1208805</v>
       </c>
       <c r="BA92" s="24" t="n">
-        <v>1208805</v>
+        <v>1168935</v>
       </c>
       <c r="BB92" s="24" t="n">
-        <v>1168935</v>
+        <v>602270</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14881,66 +14881,66 @@
       <c r="R99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S99" s="13" t="s">
-        <v>58</v>
+      <c r="S99" s="13" t="n">
+        <v>170602</v>
       </c>
       <c r="T99" s="13" t="n">
-        <v>170602</v>
+        <v>132963</v>
       </c>
       <c r="U99" s="13" t="n">
-        <v>132963</v>
+        <v>139114</v>
       </c>
       <c r="V99" s="13" t="n">
-        <v>139114</v>
+        <v>202592</v>
       </c>
       <c r="W99" s="13" t="n">
-        <v>202592</v>
+        <v>164834</v>
       </c>
       <c r="X99" s="13" t="n">
-        <v>164834</v>
+        <v>156965</v>
       </c>
       <c r="Y99" s="13" t="n">
-        <v>156965</v>
+        <v>132004</v>
       </c>
       <c r="Z99" s="13" t="n">
-        <v>132004</v>
+        <v>215683</v>
       </c>
       <c r="AA99" s="13" t="n">
-        <v>215683</v>
+        <v>166812</v>
       </c>
       <c r="AB99" s="13" t="n">
-        <v>166812</v>
+        <v>180774</v>
       </c>
       <c r="AC99" s="13" t="n">
-        <v>180774</v>
+        <v>204939</v>
       </c>
       <c r="AD99" s="13" t="n">
-        <v>204939</v>
+        <v>306756</v>
       </c>
       <c r="AE99" s="13" t="n">
-        <v>306756</v>
+        <v>4158047</v>
       </c>
       <c r="AF99" s="13" t="n">
-        <v>4158047</v>
+        <v>206980</v>
       </c>
       <c r="AG99" s="13" t="n">
-        <v>206980</v>
+        <v>249141</v>
       </c>
       <c r="AH99" s="13" t="n">
-        <v>249141</v>
+        <v>272161</v>
       </c>
       <c r="AI99" s="13" t="n">
-        <v>272161</v>
+        <v>247843</v>
       </c>
       <c r="AJ99" s="13" t="n">
-        <v>247843</v>
+        <v>265013</v>
       </c>
       <c r="AK99" s="13" t="n">
-        <v>265013</v>
-      </c>
-      <c r="AL99" s="13" t="n">
         <v>260441</v>
       </c>
+      <c r="AL99" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM99" s="13" t="s">
         <v>58</v>
       </c>
@@ -14983,11 +14983,11 @@
       <c r="AZ99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA99" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB99" s="13" t="n">
+      <c r="BA99" s="13" t="n">
         <v>900000</v>
+      </c>
+      <c r="BB99" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15040,113 +15040,113 @@
       <c r="R100" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S100" s="16" t="s">
-        <v>58</v>
+      <c r="S100" s="16" t="n">
+        <v>44646</v>
       </c>
       <c r="T100" s="16" t="n">
-        <v>44646</v>
+        <v>47698</v>
       </c>
       <c r="U100" s="16" t="n">
-        <v>47698</v>
+        <v>65329</v>
       </c>
       <c r="V100" s="16" t="n">
-        <v>65329</v>
+        <v>45916</v>
       </c>
       <c r="W100" s="16" t="n">
-        <v>45916</v>
+        <v>53878</v>
       </c>
       <c r="X100" s="16" t="n">
-        <v>53878</v>
+        <v>65485</v>
       </c>
       <c r="Y100" s="16" t="n">
-        <v>65485</v>
+        <v>65248</v>
       </c>
       <c r="Z100" s="16" t="n">
-        <v>65248</v>
+        <v>70451</v>
       </c>
       <c r="AA100" s="16" t="n">
-        <v>70451</v>
+        <v>51332</v>
       </c>
       <c r="AB100" s="16" t="n">
-        <v>51332</v>
+        <v>47642</v>
       </c>
       <c r="AC100" s="16" t="n">
-        <v>47642</v>
+        <v>58321429</v>
       </c>
       <c r="AD100" s="16" t="n">
-        <v>58321429</v>
+        <v>443727</v>
       </c>
       <c r="AE100" s="16" t="n">
-        <v>443727</v>
+        <v>65484</v>
       </c>
       <c r="AF100" s="16" t="n">
-        <v>65484</v>
+        <v>51250</v>
       </c>
       <c r="AG100" s="16" t="n">
-        <v>51250</v>
+        <v>58480</v>
       </c>
       <c r="AH100" s="16" t="n">
-        <v>58480</v>
+        <v>146367</v>
       </c>
       <c r="AI100" s="16" t="n">
-        <v>146367</v>
+        <v>101819</v>
       </c>
       <c r="AJ100" s="16" t="n">
-        <v>101819</v>
+        <v>52318</v>
       </c>
       <c r="AK100" s="16" t="n">
-        <v>52318</v>
+        <v>70504</v>
       </c>
       <c r="AL100" s="16" t="n">
-        <v>70504</v>
+        <v>66361</v>
       </c>
       <c r="AM100" s="16" t="n">
-        <v>66361</v>
+        <v>94645</v>
       </c>
       <c r="AN100" s="16" t="n">
-        <v>94645</v>
+        <v>83486</v>
       </c>
       <c r="AO100" s="16" t="n">
-        <v>83486</v>
+        <v>94459</v>
       </c>
       <c r="AP100" s="16" t="n">
-        <v>94459</v>
+        <v>135412</v>
       </c>
       <c r="AQ100" s="16" t="n">
-        <v>135412</v>
+        <v>102282</v>
       </c>
       <c r="AR100" s="16" t="n">
-        <v>102282</v>
+        <v>81353</v>
       </c>
       <c r="AS100" s="16" t="n">
-        <v>81353</v>
+        <v>96932</v>
       </c>
       <c r="AT100" s="16" t="n">
-        <v>96932</v>
+        <v>88992</v>
       </c>
       <c r="AU100" s="16" t="n">
-        <v>88992</v>
+        <v>116055</v>
       </c>
       <c r="AV100" s="16" t="n">
-        <v>116055</v>
+        <v>110401</v>
       </c>
       <c r="AW100" s="16" t="n">
-        <v>110401</v>
+        <v>103212</v>
       </c>
       <c r="AX100" s="16" t="n">
-        <v>103212</v>
+        <v>106123</v>
       </c>
       <c r="AY100" s="16" t="n">
-        <v>106123</v>
+        <v>138917</v>
       </c>
       <c r="AZ100" s="16" t="n">
-        <v>138917</v>
+        <v>110739</v>
       </c>
       <c r="BA100" s="16" t="n">
-        <v>110739</v>
-      </c>
-      <c r="BB100" s="16" t="n">
         <v>110003</v>
+      </c>
+      <c r="BB100" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15199,113 +15199,113 @@
       <c r="R101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S101" s="13" t="s">
-        <v>58</v>
+      <c r="S101" s="13" t="n">
+        <v>332883</v>
       </c>
       <c r="T101" s="13" t="n">
-        <v>332883</v>
+        <v>225450</v>
       </c>
       <c r="U101" s="13" t="n">
-        <v>225450</v>
+        <v>234687</v>
       </c>
       <c r="V101" s="13" t="n">
-        <v>234687</v>
+        <v>668653</v>
       </c>
       <c r="W101" s="13" t="n">
-        <v>668653</v>
+        <v>347462</v>
       </c>
       <c r="X101" s="13" t="n">
-        <v>347462</v>
+        <v>452775</v>
       </c>
       <c r="Y101" s="13" t="n">
-        <v>452775</v>
+        <v>256351</v>
       </c>
       <c r="Z101" s="13" t="n">
-        <v>256351</v>
+        <v>360639</v>
       </c>
       <c r="AA101" s="13" t="n">
-        <v>360639</v>
+        <v>256903</v>
       </c>
       <c r="AB101" s="13" t="n">
-        <v>256903</v>
+        <v>315171</v>
       </c>
       <c r="AC101" s="13" t="n">
-        <v>315171</v>
+        <v>809310</v>
       </c>
       <c r="AD101" s="13" t="n">
-        <v>809310</v>
+        <v>846836</v>
       </c>
       <c r="AE101" s="13" t="n">
-        <v>846836</v>
+        <v>498284</v>
       </c>
       <c r="AF101" s="13" t="n">
-        <v>498284</v>
+        <v>381609</v>
       </c>
       <c r="AG101" s="13" t="n">
-        <v>381609</v>
+        <v>311468</v>
       </c>
       <c r="AH101" s="13" t="n">
-        <v>311468</v>
+        <v>544669</v>
       </c>
       <c r="AI101" s="13" t="n">
-        <v>544669</v>
+        <v>563121</v>
       </c>
       <c r="AJ101" s="13" t="n">
-        <v>563121</v>
+        <v>418537</v>
       </c>
       <c r="AK101" s="13" t="n">
-        <v>418537</v>
+        <v>491566</v>
       </c>
       <c r="AL101" s="13" t="n">
-        <v>491566</v>
+        <v>573832</v>
       </c>
       <c r="AM101" s="13" t="n">
-        <v>573832</v>
+        <v>642896</v>
       </c>
       <c r="AN101" s="13" t="n">
-        <v>642896</v>
+        <v>441092</v>
       </c>
       <c r="AO101" s="13" t="n">
-        <v>441092</v>
+        <v>610007</v>
       </c>
       <c r="AP101" s="13" t="n">
-        <v>610007</v>
+        <v>657301</v>
       </c>
       <c r="AQ101" s="13" t="n">
-        <v>657301</v>
+        <v>747362</v>
       </c>
       <c r="AR101" s="13" t="n">
-        <v>747362</v>
+        <v>608162</v>
       </c>
       <c r="AS101" s="13" t="n">
-        <v>608162</v>
+        <v>669296</v>
       </c>
       <c r="AT101" s="13" t="n">
-        <v>669296</v>
+        <v>1035676</v>
       </c>
       <c r="AU101" s="13" t="n">
-        <v>1035676</v>
+        <v>1063559</v>
       </c>
       <c r="AV101" s="13" t="n">
-        <v>1063559</v>
+        <v>666414</v>
       </c>
       <c r="AW101" s="13" t="n">
-        <v>666414</v>
+        <v>565175</v>
       </c>
       <c r="AX101" s="13" t="n">
-        <v>565175</v>
+        <v>616518</v>
       </c>
       <c r="AY101" s="13" t="n">
-        <v>616518</v>
+        <v>1000245</v>
       </c>
       <c r="AZ101" s="13" t="n">
-        <v>1000245</v>
+        <v>933380</v>
       </c>
       <c r="BA101" s="13" t="n">
-        <v>933380</v>
+        <v>770722</v>
       </c>
       <c r="BB101" s="13" t="n">
-        <v>770722</v>
+        <v>825147</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15358,113 +15358,113 @@
       <c r="R102" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S102" s="16" t="s">
-        <v>58</v>
+      <c r="S102" s="16" t="n">
+        <v>126946</v>
       </c>
       <c r="T102" s="16" t="n">
-        <v>126946</v>
+        <v>130758</v>
       </c>
       <c r="U102" s="16" t="n">
-        <v>130758</v>
+        <v>1658330</v>
       </c>
       <c r="V102" s="16" t="n">
-        <v>1658330</v>
+        <v>113772</v>
       </c>
       <c r="W102" s="16" t="n">
-        <v>113772</v>
+        <v>134863</v>
       </c>
       <c r="X102" s="16" t="n">
-        <v>134863</v>
+        <v>1530130</v>
       </c>
       <c r="Y102" s="16" t="n">
-        <v>1530130</v>
+        <v>148296</v>
       </c>
       <c r="Z102" s="16" t="n">
-        <v>148296</v>
+        <v>167008</v>
       </c>
       <c r="AA102" s="16" t="n">
-        <v>167008</v>
+        <v>179185</v>
       </c>
       <c r="AB102" s="16" t="n">
-        <v>179185</v>
+        <v>137429</v>
       </c>
       <c r="AC102" s="16" t="n">
-        <v>137429</v>
+        <v>196558</v>
       </c>
       <c r="AD102" s="16" t="n">
-        <v>196558</v>
+        <v>180848</v>
       </c>
       <c r="AE102" s="16" t="n">
-        <v>180848</v>
+        <v>154325</v>
       </c>
       <c r="AF102" s="16" t="n">
-        <v>154325</v>
+        <v>173089</v>
       </c>
       <c r="AG102" s="16" t="n">
-        <v>173089</v>
+        <v>204631</v>
       </c>
       <c r="AH102" s="16" t="n">
-        <v>204631</v>
+        <v>207133</v>
       </c>
       <c r="AI102" s="16" t="n">
-        <v>207133</v>
+        <v>172191</v>
       </c>
       <c r="AJ102" s="16" t="n">
-        <v>172191</v>
+        <v>259636</v>
       </c>
       <c r="AK102" s="16" t="n">
-        <v>259636</v>
+        <v>193469</v>
       </c>
       <c r="AL102" s="16" t="n">
-        <v>193469</v>
+        <v>213356</v>
       </c>
       <c r="AM102" s="16" t="n">
-        <v>213356</v>
+        <v>222172</v>
       </c>
       <c r="AN102" s="16" t="n">
-        <v>222172</v>
+        <v>256902</v>
       </c>
       <c r="AO102" s="16" t="n">
-        <v>256902</v>
+        <v>115546</v>
       </c>
       <c r="AP102" s="16" t="n">
-        <v>115546</v>
+        <v>331316</v>
       </c>
       <c r="AQ102" s="16" t="n">
-        <v>331316</v>
+        <v>237369</v>
       </c>
       <c r="AR102" s="16" t="n">
-        <v>237369</v>
+        <v>243934</v>
       </c>
       <c r="AS102" s="16" t="n">
-        <v>243934</v>
+        <v>285534</v>
       </c>
       <c r="AT102" s="16" t="n">
-        <v>285534</v>
+        <v>332830</v>
       </c>
       <c r="AU102" s="16" t="n">
-        <v>332830</v>
+        <v>335233</v>
       </c>
       <c r="AV102" s="16" t="n">
-        <v>335233</v>
+        <v>340686</v>
       </c>
       <c r="AW102" s="16" t="n">
-        <v>340686</v>
+        <v>325904</v>
       </c>
       <c r="AX102" s="16" t="n">
-        <v>325904</v>
+        <v>381760</v>
       </c>
       <c r="AY102" s="16" t="n">
-        <v>381760</v>
+        <v>385052</v>
       </c>
       <c r="AZ102" s="16" t="n">
-        <v>385052</v>
+        <v>364198</v>
       </c>
       <c r="BA102" s="16" t="n">
-        <v>364198</v>
+        <v>463149</v>
       </c>
       <c r="BB102" s="16" t="n">
-        <v>463149</v>
+        <v>373807</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15517,113 +15517,113 @@
       <c r="R103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S103" s="13" t="s">
-        <v>58</v>
+      <c r="S103" s="13" t="n">
+        <v>94055</v>
       </c>
       <c r="T103" s="13" t="n">
-        <v>94055</v>
+        <v>84753</v>
       </c>
       <c r="U103" s="13" t="n">
-        <v>84753</v>
+        <v>860774</v>
       </c>
       <c r="V103" s="13" t="n">
-        <v>860774</v>
+        <v>33423</v>
       </c>
       <c r="W103" s="13" t="n">
-        <v>33423</v>
+        <v>109754</v>
       </c>
       <c r="X103" s="13" t="n">
-        <v>109754</v>
+        <v>74290</v>
       </c>
       <c r="Y103" s="13" t="n">
-        <v>74290</v>
+        <v>116391</v>
       </c>
       <c r="Z103" s="13" t="n">
-        <v>116391</v>
+        <v>63240</v>
       </c>
       <c r="AA103" s="13" t="n">
-        <v>63240</v>
+        <v>96539</v>
       </c>
       <c r="AB103" s="13" t="n">
-        <v>96539</v>
+        <v>50994</v>
       </c>
       <c r="AC103" s="13" t="n">
-        <v>50994</v>
+        <v>3353667</v>
       </c>
       <c r="AD103" s="13" t="n">
-        <v>3353667</v>
+        <v>333916</v>
       </c>
       <c r="AE103" s="13" t="n">
-        <v>333916</v>
+        <v>128938</v>
       </c>
       <c r="AF103" s="13" t="n">
-        <v>128938</v>
+        <v>112858</v>
       </c>
       <c r="AG103" s="13" t="n">
-        <v>112858</v>
+        <v>106641</v>
       </c>
       <c r="AH103" s="13" t="n">
-        <v>106641</v>
+        <v>112916</v>
       </c>
       <c r="AI103" s="13" t="n">
-        <v>112916</v>
+        <v>121565</v>
       </c>
       <c r="AJ103" s="13" t="n">
-        <v>121565</v>
+        <v>78014</v>
       </c>
       <c r="AK103" s="13" t="n">
-        <v>78014</v>
+        <v>102626</v>
       </c>
       <c r="AL103" s="13" t="n">
-        <v>102626</v>
+        <v>107089</v>
       </c>
       <c r="AM103" s="13" t="n">
-        <v>107089</v>
+        <v>92261</v>
       </c>
       <c r="AN103" s="13" t="n">
-        <v>92261</v>
+        <v>138377</v>
       </c>
       <c r="AO103" s="13" t="n">
-        <v>138377</v>
+        <v>105739</v>
       </c>
       <c r="AP103" s="13" t="n">
-        <v>105739</v>
+        <v>90238</v>
       </c>
       <c r="AQ103" s="13" t="n">
-        <v>90238</v>
+        <v>91199</v>
       </c>
       <c r="AR103" s="13" t="n">
-        <v>91199</v>
+        <v>73461</v>
       </c>
       <c r="AS103" s="13" t="n">
-        <v>73461</v>
+        <v>120857</v>
       </c>
       <c r="AT103" s="13" t="n">
-        <v>120857</v>
+        <v>91367</v>
       </c>
       <c r="AU103" s="13" t="n">
-        <v>91367</v>
+        <v>108698</v>
       </c>
       <c r="AV103" s="13" t="n">
-        <v>108698</v>
+        <v>94800</v>
       </c>
       <c r="AW103" s="13" t="n">
-        <v>94800</v>
+        <v>119774</v>
       </c>
       <c r="AX103" s="13" t="n">
-        <v>119774</v>
+        <v>131471</v>
       </c>
       <c r="AY103" s="13" t="n">
-        <v>131471</v>
+        <v>165378</v>
       </c>
       <c r="AZ103" s="13" t="n">
-        <v>165378</v>
+        <v>142697</v>
       </c>
       <c r="BA103" s="13" t="n">
-        <v>142697</v>
+        <v>152606</v>
       </c>
       <c r="BB103" s="13" t="n">
-        <v>152606</v>
+        <v>179274</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15676,113 +15676,113 @@
       <c r="R104" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="S104" s="16" t="s">
-        <v>58</v>
+      <c r="S104" s="16" t="n">
+        <v>124150</v>
       </c>
       <c r="T104" s="16" t="n">
-        <v>124150</v>
+        <v>211766</v>
       </c>
       <c r="U104" s="16" t="n">
-        <v>211766</v>
+        <v>854702</v>
       </c>
       <c r="V104" s="16" t="n">
-        <v>854702</v>
+        <v>773694</v>
       </c>
       <c r="W104" s="16" t="n">
-        <v>773694</v>
+        <v>552779</v>
       </c>
       <c r="X104" s="16" t="n">
-        <v>552779</v>
+        <v>442721</v>
       </c>
       <c r="Y104" s="16" t="n">
-        <v>442721</v>
+        <v>500064</v>
       </c>
       <c r="Z104" s="16" t="n">
-        <v>500064</v>
+        <v>410596</v>
       </c>
       <c r="AA104" s="16" t="n">
-        <v>410596</v>
+        <v>433865</v>
       </c>
       <c r="AB104" s="16" t="n">
-        <v>433865</v>
+        <v>409956</v>
       </c>
       <c r="AC104" s="16" t="n">
-        <v>409956</v>
+        <v>380279</v>
       </c>
       <c r="AD104" s="16" t="n">
-        <v>380279</v>
+        <v>595062</v>
       </c>
       <c r="AE104" s="16" t="n">
-        <v>595062</v>
+        <v>452416</v>
       </c>
       <c r="AF104" s="16" t="n">
-        <v>452416</v>
+        <v>654264</v>
       </c>
       <c r="AG104" s="16" t="n">
-        <v>654264</v>
+        <v>817256</v>
       </c>
       <c r="AH104" s="16" t="n">
-        <v>817256</v>
+        <v>719974</v>
       </c>
       <c r="AI104" s="16" t="n">
-        <v>719974</v>
+        <v>665945</v>
       </c>
       <c r="AJ104" s="16" t="n">
-        <v>665945</v>
+        <v>880828</v>
       </c>
       <c r="AK104" s="16" t="n">
-        <v>880828</v>
+        <v>522269</v>
       </c>
       <c r="AL104" s="16" t="n">
-        <v>522269</v>
+        <v>531583</v>
       </c>
       <c r="AM104" s="16" t="n">
-        <v>531583</v>
+        <v>496960</v>
       </c>
       <c r="AN104" s="16" t="n">
-        <v>496960</v>
+        <v>1107260</v>
       </c>
       <c r="AO104" s="16" t="n">
-        <v>1107260</v>
+        <v>850548</v>
       </c>
       <c r="AP104" s="16" t="n">
-        <v>850548</v>
+        <v>541969</v>
       </c>
       <c r="AQ104" s="16" t="n">
-        <v>541969</v>
+        <v>653024</v>
       </c>
       <c r="AR104" s="16" t="n">
-        <v>653024</v>
+        <v>659998</v>
       </c>
       <c r="AS104" s="16" t="n">
-        <v>659998</v>
+        <v>657901</v>
       </c>
       <c r="AT104" s="16" t="n">
-        <v>657901</v>
+        <v>759243</v>
       </c>
       <c r="AU104" s="16" t="n">
-        <v>759243</v>
+        <v>726501</v>
       </c>
       <c r="AV104" s="16" t="n">
-        <v>726501</v>
+        <v>907304</v>
       </c>
       <c r="AW104" s="16" t="n">
-        <v>907304</v>
+        <v>1020469</v>
       </c>
       <c r="AX104" s="16" t="n">
-        <v>1020469</v>
-      </c>
-      <c r="AY104" s="16" t="n">
         <v>401521</v>
       </c>
-      <c r="AZ104" s="16" t="s">
-        <v>58</v>
+      <c r="AY104" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ104" s="16" t="n">
+        <v>480187</v>
       </c>
       <c r="BA104" s="16" t="n">
-        <v>480187</v>
+        <v>787867</v>
       </c>
       <c r="BB104" s="16" t="n">
-        <v>787867</v>
+        <v>749871</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15907,12 +15907,12 @@
       <c r="W106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y106" s="13" t="n">
+      <c r="X106" s="13" t="n">
         <v>63491</v>
       </c>
+      <c r="Y106" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="Z106" s="13" t="s">
         <v>58</v>
       </c>
@@ -15967,23 +15967,23 @@
       <c r="AQ106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS106" s="13" t="n">
+      <c r="AR106" s="13" t="n">
         <v>51389</v>
       </c>
-      <c r="AT106" s="13" t="s">
-        <v>58</v>
+      <c r="AS106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT106" s="13" t="n">
+        <v>85640</v>
       </c>
       <c r="AU106" s="13" t="n">
-        <v>85640</v>
+        <v>85642</v>
       </c>
       <c r="AV106" s="13" t="n">
-        <v>85642</v>
-      </c>
-      <c r="AW106" s="13" t="n">
         <v>85641</v>
+      </c>
+      <c r="AW106" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX106" s="13" t="s">
         <v>58</v>
@@ -16114,12 +16114,12 @@
       <c r="AM107" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AN107" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO107" s="16" t="n">
+      <c r="AN107" s="16" t="n">
         <v>598021</v>
       </c>
+      <c r="AO107" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AP107" s="16" t="s">
         <v>58</v>
       </c>
@@ -16153,11 +16153,11 @@
       <c r="AZ107" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BA107" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB107" s="16" t="n">
+      <c r="BA107" s="16" t="n">
         <v>765881</v>
+      </c>
+      <c r="BB107" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16210,27 +16210,27 @@
       <c r="R108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="S108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T108" s="13" t="n">
+      <c r="S108" s="13" t="n">
         <v>289170</v>
       </c>
-      <c r="U108" s="13" t="s">
-        <v>58</v>
+      <c r="T108" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U108" s="13" t="n">
+        <v>150417</v>
       </c>
       <c r="V108" s="13" t="n">
-        <v>150417</v>
-      </c>
-      <c r="W108" s="13" t="n">
         <v>140933</v>
       </c>
-      <c r="X108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y108" s="13" t="n">
+      <c r="W108" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X108" s="13" t="n">
         <v>100000</v>
       </c>
+      <c r="Y108" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="Z108" s="13" t="s">
         <v>58</v>
       </c>
@@ -16240,12 +16240,12 @@
       <c r="AB108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD108" s="13" t="n">
+      <c r="AC108" s="13" t="n">
         <v>382192</v>
       </c>
+      <c r="AD108" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE108" s="13" t="s">
         <v>58</v>
       </c>
@@ -16303,20 +16303,20 @@
       <c r="AW108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY108" s="13" t="n">
+      <c r="AX108" s="13" t="n">
         <v>303665</v>
       </c>
+      <c r="AY108" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AZ108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB108" s="13" t="n">
+      <c r="BA108" s="13" t="n">
         <v>312000</v>
+      </c>
+      <c r="BB108" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16378,11 +16378,11 @@
       <c r="U109" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="V109" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="W109" s="16" t="n">
+      <c r="V109" s="16" t="n">
         <v>8923664</v>
+      </c>
+      <c r="W109" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="X109" s="16" t="s">
         <v>58</v>
@@ -16624,11 +16624,11 @@
       <c r="AX110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ110" s="13" t="n">
+      <c r="AY110" s="13" t="n">
         <v>1765997</v>
+      </c>
+      <c r="AZ110" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA110" s="13" t="s">
         <v>58</v>
